--- a/App/Files/Target.xlsx
+++ b/App/Files/Target.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CO25"/>
+  <dimension ref="A1:DD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,55 +546,55 @@
         <v>41</v>
       </c>
       <c r="AL1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM1" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AN1" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AO1" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="AO1" s="1" t="n">
+      <c r="AP1" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="AP1" s="1" t="n">
+      <c r="AQ1" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="AQ1" s="1" t="n">
+      <c r="AR1" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="AR1" s="1" t="n">
+      <c r="AS1" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AT1" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AU1" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="AU1" s="1" t="n">
+      <c r="AV1" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="AV1" s="1" t="n">
+      <c r="AW1" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="AW1" s="1" t="n">
+      <c r="AX1" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="AX1" s="1" t="n">
+      <c r="AY1" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="AY1" s="1" t="n">
+      <c r="AZ1" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="AZ1" s="1" t="n">
+      <c r="BA1" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="BB1" s="1" t="n">
         <v>59</v>
-      </c>
-      <c r="BA1" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="BB1" s="1" t="n">
-        <v>58</v>
       </c>
       <c r="BC1" s="1" t="n">
         <v>60</v>
@@ -630,22 +630,22 @@
         <v>71</v>
       </c>
       <c r="BN1" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="BO1" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="BO1" s="1" t="n">
+      <c r="BP1" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="BQ1" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="BR1" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="BS1" s="1" t="n">
         <v>77</v>
-      </c>
-      <c r="BP1" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="BQ1" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="BR1" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="BS1" s="1" t="n">
-        <v>76</v>
       </c>
       <c r="BT1" s="1" t="n">
         <v>78</v>
@@ -660,28 +660,28 @@
         <v>81</v>
       </c>
       <c r="BX1" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="BY1" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="BZ1" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="CA1" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="CB1" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="BY1" s="1" t="n">
+      <c r="CC1" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="CD1" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="CE1" s="1" t="n">
         <v>89</v>
-      </c>
-      <c r="BZ1" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="CA1" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="CB1" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="CC1" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="CD1" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="CE1" s="1" t="n">
-        <v>88</v>
       </c>
       <c r="CF1" s="1" t="n">
         <v>90</v>
@@ -713,6 +713,21 @@
       <c r="CO1" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="CP1" s="1" t="inlineStr"/>
+      <c r="CQ1" s="1" t="inlineStr"/>
+      <c r="CR1" s="1" t="inlineStr"/>
+      <c r="CS1" s="1" t="inlineStr"/>
+      <c r="CT1" s="1" t="inlineStr"/>
+      <c r="CU1" s="1" t="inlineStr"/>
+      <c r="CV1" s="1" t="inlineStr"/>
+      <c r="CW1" s="1" t="inlineStr"/>
+      <c r="CX1" s="1" t="inlineStr"/>
+      <c r="CY1" s="1" t="inlineStr"/>
+      <c r="CZ1" s="1" t="inlineStr"/>
+      <c r="DA1" s="1" t="inlineStr"/>
+      <c r="DB1" s="1" t="inlineStr"/>
+      <c r="DC1" s="1" t="inlineStr"/>
+      <c r="DD1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -808,6 +823,21 @@
       <c r="CM2" t="inlineStr"/>
       <c r="CN2" t="inlineStr"/>
       <c r="CO2" t="inlineStr"/>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2" t="inlineStr"/>
+      <c r="CY2" t="inlineStr"/>
+      <c r="CZ2" t="inlineStr"/>
+      <c r="DA2" t="inlineStr"/>
+      <c r="DB2" t="inlineStr"/>
+      <c r="DC2" t="inlineStr"/>
+      <c r="DD2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -993,89 +1023,89 @@
       </c>
       <c r="AL3" t="inlineStr">
         <is>
+          <t>24.05</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
           <t>25.27</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>25.27</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>25.27</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>25.27</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>24.87</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>24.87</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>25.27</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>25.27</t>
         </is>
       </c>
-      <c r="AT3" t="inlineStr">
+      <c r="AU3" t="inlineStr">
         <is>
           <t>24.87</t>
         </is>
       </c>
-      <c r="AU3" t="inlineStr">
+      <c r="AV3" t="inlineStr">
         <is>
           <t>24.87</t>
         </is>
       </c>
-      <c r="AV3" t="inlineStr">
+      <c r="AW3" t="inlineStr">
         <is>
           <t>25.99</t>
         </is>
       </c>
-      <c r="AW3" t="inlineStr">
+      <c r="AX3" t="inlineStr">
         <is>
           <t>24.87</t>
         </is>
       </c>
-      <c r="AX3" t="inlineStr">
+      <c r="AY3" t="inlineStr">
         <is>
           <t>24.87</t>
         </is>
       </c>
-      <c r="AY3" t="inlineStr">
+      <c r="AZ3" t="inlineStr">
         <is>
           <t>25.27</t>
         </is>
       </c>
-      <c r="AZ3" t="inlineStr">
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>24.05</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
         <is>
           <t>25.27</t>
         </is>
       </c>
-      <c r="BA3" t="inlineStr">
-        <is>
-          <t>24.05</t>
-        </is>
-      </c>
-      <c r="BB3" t="inlineStr">
-        <is>
-          <t>24.05</t>
-        </is>
-      </c>
       <c r="BC3" t="inlineStr">
         <is>
           <t>25.51</t>
@@ -1133,144 +1163,159 @@
       </c>
       <c r="BN3" t="inlineStr">
         <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
           <t>27.32</t>
         </is>
       </c>
-      <c r="BO3" t="inlineStr">
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
         <is>
           <t>27.32</t>
         </is>
       </c>
-      <c r="BP3" t="inlineStr">
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>27.91</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>27.91</t>
+        </is>
+      </c>
+      <c r="BV3" t="inlineStr">
         <is>
           <t>27.62</t>
         </is>
       </c>
-      <c r="BQ3" t="inlineStr">
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="BX3" t="inlineStr">
+        <is>
+          <t>27.91</t>
+        </is>
+      </c>
+      <c r="BY3" t="inlineStr">
+        <is>
+          <t>27.91</t>
+        </is>
+      </c>
+      <c r="BZ3" t="inlineStr">
+        <is>
+          <t>27.91</t>
+        </is>
+      </c>
+      <c r="CA3" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="CB3" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="CC3" t="inlineStr">
+        <is>
+          <t>27.91</t>
+        </is>
+      </c>
+      <c r="CD3" t="inlineStr">
+        <is>
+          <t>27.91</t>
+        </is>
+      </c>
+      <c r="CE3" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="CF3" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="CG3" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="CH3" t="inlineStr">
+        <is>
+          <t>27.91</t>
+        </is>
+      </c>
+      <c r="CI3" t="inlineStr">
+        <is>
+          <t>27.91</t>
+        </is>
+      </c>
+      <c r="CJ3" t="inlineStr">
+        <is>
+          <t>27.91</t>
+        </is>
+      </c>
+      <c r="CK3" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="CL3" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="CM3" t="inlineStr">
         <is>
           <t>25.99</t>
         </is>
       </c>
-      <c r="BR3" t="inlineStr">
+      <c r="CN3" t="inlineStr">
         <is>
           <t>25.99</t>
         </is>
       </c>
-      <c r="BS3" t="inlineStr">
+      <c r="CO3" t="inlineStr">
         <is>
           <t>25.99</t>
         </is>
       </c>
-      <c r="BT3" t="inlineStr">
-        <is>
-          <t>27.91</t>
-        </is>
-      </c>
-      <c r="BU3" t="inlineStr">
-        <is>
-          <t>27.91</t>
-        </is>
-      </c>
-      <c r="BV3" t="inlineStr">
-        <is>
-          <t>27.62</t>
-        </is>
-      </c>
-      <c r="BW3" t="inlineStr">
-        <is>
-          <t>27.62</t>
-        </is>
-      </c>
-      <c r="BX3" t="inlineStr">
-        <is>
-          <t>27.62</t>
-        </is>
-      </c>
-      <c r="BY3" t="inlineStr">
-        <is>
-          <t>27.62</t>
-        </is>
-      </c>
-      <c r="BZ3" t="inlineStr">
-        <is>
-          <t>27.62</t>
-        </is>
-      </c>
-      <c r="CA3" t="inlineStr">
-        <is>
-          <t>27.91</t>
-        </is>
-      </c>
-      <c r="CB3" t="inlineStr">
-        <is>
-          <t>27.91</t>
-        </is>
-      </c>
-      <c r="CC3" t="inlineStr">
-        <is>
-          <t>27.91</t>
-        </is>
-      </c>
-      <c r="CD3" t="inlineStr">
-        <is>
-          <t>27.91</t>
-        </is>
-      </c>
-      <c r="CE3" t="inlineStr">
-        <is>
-          <t>27.91</t>
-        </is>
-      </c>
-      <c r="CF3" t="inlineStr">
-        <is>
-          <t>27.32</t>
-        </is>
-      </c>
-      <c r="CG3" t="inlineStr">
-        <is>
-          <t>27.32</t>
-        </is>
-      </c>
-      <c r="CH3" t="inlineStr">
-        <is>
-          <t>27.91</t>
-        </is>
-      </c>
-      <c r="CI3" t="inlineStr">
-        <is>
-          <t>27.91</t>
-        </is>
-      </c>
-      <c r="CJ3" t="inlineStr">
-        <is>
-          <t>27.91</t>
-        </is>
-      </c>
-      <c r="CK3" t="inlineStr">
-        <is>
-          <t>27.62</t>
-        </is>
-      </c>
-      <c r="CL3" t="inlineStr">
-        <is>
-          <t>27.62</t>
-        </is>
-      </c>
-      <c r="CM3" t="inlineStr">
-        <is>
-          <t>25.99</t>
-        </is>
-      </c>
-      <c r="CN3" t="inlineStr">
-        <is>
-          <t>25.99</t>
-        </is>
-      </c>
-      <c r="CO3" t="inlineStr">
-        <is>
-          <t>25.99</t>
-        </is>
-      </c>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr"/>
+      <c r="CW3" t="inlineStr"/>
+      <c r="CX3" t="inlineStr"/>
+      <c r="CY3" t="inlineStr"/>
+      <c r="CZ3" t="inlineStr"/>
+      <c r="DA3" t="inlineStr"/>
+      <c r="DB3" t="inlineStr"/>
+      <c r="DC3" t="inlineStr"/>
+      <c r="DD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -1456,89 +1501,89 @@
       </c>
       <c r="AL4" t="inlineStr">
         <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
           <t>27.93</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>27.93</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>27.93</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>27.93</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>27.96</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>27.96</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>27.93</t>
         </is>
       </c>
-      <c r="AS4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>27.93</t>
         </is>
       </c>
-      <c r="AT4" t="inlineStr">
+      <c r="AU4" t="inlineStr">
         <is>
           <t>27.96</t>
         </is>
       </c>
-      <c r="AU4" t="inlineStr">
+      <c r="AV4" t="inlineStr">
         <is>
           <t>27.96</t>
         </is>
       </c>
-      <c r="AV4" t="inlineStr">
+      <c r="AW4" t="inlineStr">
         <is>
           <t>30.20</t>
         </is>
       </c>
-      <c r="AW4" t="inlineStr">
+      <c r="AX4" t="inlineStr">
         <is>
           <t>27.96</t>
         </is>
       </c>
-      <c r="AX4" t="inlineStr">
+      <c r="AY4" t="inlineStr">
         <is>
           <t>27.96</t>
         </is>
       </c>
-      <c r="AY4" t="inlineStr">
+      <c r="AZ4" t="inlineStr">
         <is>
           <t>27.93</t>
         </is>
       </c>
-      <c r="AZ4" t="inlineStr">
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
         <is>
           <t>27.93</t>
         </is>
       </c>
-      <c r="BA4" t="inlineStr">
-        <is>
-          <t>26.31</t>
-        </is>
-      </c>
-      <c r="BB4" t="inlineStr">
-        <is>
-          <t>26.31</t>
-        </is>
-      </c>
       <c r="BC4" t="inlineStr">
         <is>
           <t>29.24</t>
@@ -1596,144 +1641,159 @@
       </c>
       <c r="BN4" t="inlineStr">
         <is>
+          <t>32.56</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
           <t>31.98</t>
         </is>
       </c>
-      <c r="BO4" t="inlineStr">
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
         <is>
           <t>31.98</t>
         </is>
       </c>
-      <c r="BP4" t="inlineStr">
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="BV4" t="inlineStr">
         <is>
           <t>32.56</t>
         </is>
       </c>
-      <c r="BQ4" t="inlineStr">
+      <c r="BW4" t="inlineStr">
+        <is>
+          <t>32.56</t>
+        </is>
+      </c>
+      <c r="BX4" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="BY4" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="BZ4" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="CA4" t="inlineStr">
+        <is>
+          <t>32.56</t>
+        </is>
+      </c>
+      <c r="CB4" t="inlineStr">
+        <is>
+          <t>32.56</t>
+        </is>
+      </c>
+      <c r="CC4" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="CD4" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="CE4" t="inlineStr">
+        <is>
+          <t>32.56</t>
+        </is>
+      </c>
+      <c r="CF4" t="inlineStr">
+        <is>
+          <t>31.98</t>
+        </is>
+      </c>
+      <c r="CG4" t="inlineStr">
+        <is>
+          <t>31.98</t>
+        </is>
+      </c>
+      <c r="CH4" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="CI4" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="CJ4" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="CK4" t="inlineStr">
+        <is>
+          <t>32.56</t>
+        </is>
+      </c>
+      <c r="CL4" t="inlineStr">
+        <is>
+          <t>32.56</t>
+        </is>
+      </c>
+      <c r="CM4" t="inlineStr">
         <is>
           <t>30.20</t>
         </is>
       </c>
-      <c r="BR4" t="inlineStr">
+      <c r="CN4" t="inlineStr">
         <is>
           <t>30.20</t>
         </is>
       </c>
-      <c r="BS4" t="inlineStr">
+      <c r="CO4" t="inlineStr">
         <is>
           <t>30.20</t>
         </is>
       </c>
-      <c r="BT4" t="inlineStr">
-        <is>
-          <t>33.15</t>
-        </is>
-      </c>
-      <c r="BU4" t="inlineStr">
-        <is>
-          <t>33.15</t>
-        </is>
-      </c>
-      <c r="BV4" t="inlineStr">
-        <is>
-          <t>32.56</t>
-        </is>
-      </c>
-      <c r="BW4" t="inlineStr">
-        <is>
-          <t>32.56</t>
-        </is>
-      </c>
-      <c r="BX4" t="inlineStr">
-        <is>
-          <t>32.56</t>
-        </is>
-      </c>
-      <c r="BY4" t="inlineStr">
-        <is>
-          <t>32.56</t>
-        </is>
-      </c>
-      <c r="BZ4" t="inlineStr">
-        <is>
-          <t>32.56</t>
-        </is>
-      </c>
-      <c r="CA4" t="inlineStr">
-        <is>
-          <t>33.15</t>
-        </is>
-      </c>
-      <c r="CB4" t="inlineStr">
-        <is>
-          <t>33.15</t>
-        </is>
-      </c>
-      <c r="CC4" t="inlineStr">
-        <is>
-          <t>33.15</t>
-        </is>
-      </c>
-      <c r="CD4" t="inlineStr">
-        <is>
-          <t>33.15</t>
-        </is>
-      </c>
-      <c r="CE4" t="inlineStr">
-        <is>
-          <t>33.15</t>
-        </is>
-      </c>
-      <c r="CF4" t="inlineStr">
-        <is>
-          <t>31.98</t>
-        </is>
-      </c>
-      <c r="CG4" t="inlineStr">
-        <is>
-          <t>31.98</t>
-        </is>
-      </c>
-      <c r="CH4" t="inlineStr">
-        <is>
-          <t>33.15</t>
-        </is>
-      </c>
-      <c r="CI4" t="inlineStr">
-        <is>
-          <t>33.15</t>
-        </is>
-      </c>
-      <c r="CJ4" t="inlineStr">
-        <is>
-          <t>33.15</t>
-        </is>
-      </c>
-      <c r="CK4" t="inlineStr">
-        <is>
-          <t>32.56</t>
-        </is>
-      </c>
-      <c r="CL4" t="inlineStr">
-        <is>
-          <t>32.56</t>
-        </is>
-      </c>
-      <c r="CM4" t="inlineStr">
-        <is>
-          <t>30.20</t>
-        </is>
-      </c>
-      <c r="CN4" t="inlineStr">
-        <is>
-          <t>30.20</t>
-        </is>
-      </c>
-      <c r="CO4" t="inlineStr">
-        <is>
-          <t>30.20</t>
-        </is>
-      </c>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="inlineStr"/>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr"/>
+      <c r="CW4" t="inlineStr"/>
+      <c r="CX4" t="inlineStr"/>
+      <c r="CY4" t="inlineStr"/>
+      <c r="CZ4" t="inlineStr"/>
+      <c r="DA4" t="inlineStr"/>
+      <c r="DB4" t="inlineStr"/>
+      <c r="DC4" t="inlineStr"/>
+      <c r="DD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -1919,89 +1979,89 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
           <t>29.43</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>29.43</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>29.43</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>29.43</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>29.43</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>29.43</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
         <is>
           <t>29.43</t>
         </is>
       </c>
-      <c r="AS5" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>29.43</t>
         </is>
       </c>
-      <c r="AT5" t="inlineStr">
+      <c r="AU5" t="inlineStr">
         <is>
           <t>29.43</t>
         </is>
       </c>
-      <c r="AU5" t="inlineStr">
+      <c r="AV5" t="inlineStr">
         <is>
           <t>29.43</t>
         </is>
       </c>
-      <c r="AV5" t="inlineStr">
+      <c r="AW5" t="inlineStr">
         <is>
           <t>31.72</t>
         </is>
       </c>
-      <c r="AW5" t="inlineStr">
+      <c r="AX5" t="inlineStr">
         <is>
           <t>29.43</t>
         </is>
       </c>
-      <c r="AX5" t="inlineStr">
+      <c r="AY5" t="inlineStr">
         <is>
           <t>29.43</t>
         </is>
       </c>
-      <c r="AY5" t="inlineStr">
+      <c r="AZ5" t="inlineStr">
         <is>
           <t>29.43</t>
         </is>
       </c>
-      <c r="AZ5" t="inlineStr">
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
         <is>
           <t>29.43</t>
         </is>
       </c>
-      <c r="BA5" t="inlineStr">
-        <is>
-          <t>27.74</t>
-        </is>
-      </c>
-      <c r="BB5" t="inlineStr">
-        <is>
-          <t>27.74</t>
-        </is>
-      </c>
       <c r="BC5" t="inlineStr">
         <is>
           <t>30.75</t>
@@ -2059,144 +2119,159 @@
       </c>
       <c r="BN5" t="inlineStr">
         <is>
+          <t>34.17</t>
+        </is>
+      </c>
+      <c r="BO5" t="inlineStr">
+        <is>
           <t>33.59</t>
         </is>
       </c>
-      <c r="BO5" t="inlineStr">
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>31.72</t>
+        </is>
+      </c>
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>31.72</t>
+        </is>
+      </c>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>31.72</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
         <is>
           <t>33.59</t>
         </is>
       </c>
-      <c r="BP5" t="inlineStr">
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>34.75</t>
+        </is>
+      </c>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>34.75</t>
+        </is>
+      </c>
+      <c r="BV5" t="inlineStr">
         <is>
           <t>34.17</t>
         </is>
       </c>
-      <c r="BQ5" t="inlineStr">
+      <c r="BW5" t="inlineStr">
+        <is>
+          <t>34.17</t>
+        </is>
+      </c>
+      <c r="BX5" t="inlineStr">
+        <is>
+          <t>34.75</t>
+        </is>
+      </c>
+      <c r="BY5" t="inlineStr">
+        <is>
+          <t>34.75</t>
+        </is>
+      </c>
+      <c r="BZ5" t="inlineStr">
+        <is>
+          <t>34.75</t>
+        </is>
+      </c>
+      <c r="CA5" t="inlineStr">
+        <is>
+          <t>34.17</t>
+        </is>
+      </c>
+      <c r="CB5" t="inlineStr">
+        <is>
+          <t>34.17</t>
+        </is>
+      </c>
+      <c r="CC5" t="inlineStr">
+        <is>
+          <t>34.75</t>
+        </is>
+      </c>
+      <c r="CD5" t="inlineStr">
+        <is>
+          <t>34.75</t>
+        </is>
+      </c>
+      <c r="CE5" t="inlineStr">
+        <is>
+          <t>34.17</t>
+        </is>
+      </c>
+      <c r="CF5" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="CG5" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="CH5" t="inlineStr">
+        <is>
+          <t>34.75</t>
+        </is>
+      </c>
+      <c r="CI5" t="inlineStr">
+        <is>
+          <t>34.75</t>
+        </is>
+      </c>
+      <c r="CJ5" t="inlineStr">
+        <is>
+          <t>34.75</t>
+        </is>
+      </c>
+      <c r="CK5" t="inlineStr">
+        <is>
+          <t>34.17</t>
+        </is>
+      </c>
+      <c r="CL5" t="inlineStr">
+        <is>
+          <t>34.17</t>
+        </is>
+      </c>
+      <c r="CM5" t="inlineStr">
         <is>
           <t>31.72</t>
         </is>
       </c>
-      <c r="BR5" t="inlineStr">
+      <c r="CN5" t="inlineStr">
         <is>
           <t>31.72</t>
         </is>
       </c>
-      <c r="BS5" t="inlineStr">
+      <c r="CO5" t="inlineStr">
         <is>
           <t>31.72</t>
         </is>
       </c>
-      <c r="BT5" t="inlineStr">
-        <is>
-          <t>34.75</t>
-        </is>
-      </c>
-      <c r="BU5" t="inlineStr">
-        <is>
-          <t>34.75</t>
-        </is>
-      </c>
-      <c r="BV5" t="inlineStr">
-        <is>
-          <t>34.17</t>
-        </is>
-      </c>
-      <c r="BW5" t="inlineStr">
-        <is>
-          <t>34.17</t>
-        </is>
-      </c>
-      <c r="BX5" t="inlineStr">
-        <is>
-          <t>34.17</t>
-        </is>
-      </c>
-      <c r="BY5" t="inlineStr">
-        <is>
-          <t>34.17</t>
-        </is>
-      </c>
-      <c r="BZ5" t="inlineStr">
-        <is>
-          <t>34.17</t>
-        </is>
-      </c>
-      <c r="CA5" t="inlineStr">
-        <is>
-          <t>34.75</t>
-        </is>
-      </c>
-      <c r="CB5" t="inlineStr">
-        <is>
-          <t>34.75</t>
-        </is>
-      </c>
-      <c r="CC5" t="inlineStr">
-        <is>
-          <t>34.75</t>
-        </is>
-      </c>
-      <c r="CD5" t="inlineStr">
-        <is>
-          <t>34.75</t>
-        </is>
-      </c>
-      <c r="CE5" t="inlineStr">
-        <is>
-          <t>34.75</t>
-        </is>
-      </c>
-      <c r="CF5" t="inlineStr">
-        <is>
-          <t>33.59</t>
-        </is>
-      </c>
-      <c r="CG5" t="inlineStr">
-        <is>
-          <t>33.59</t>
-        </is>
-      </c>
-      <c r="CH5" t="inlineStr">
-        <is>
-          <t>34.75</t>
-        </is>
-      </c>
-      <c r="CI5" t="inlineStr">
-        <is>
-          <t>34.75</t>
-        </is>
-      </c>
-      <c r="CJ5" t="inlineStr">
-        <is>
-          <t>34.75</t>
-        </is>
-      </c>
-      <c r="CK5" t="inlineStr">
-        <is>
-          <t>34.17</t>
-        </is>
-      </c>
-      <c r="CL5" t="inlineStr">
-        <is>
-          <t>34.17</t>
-        </is>
-      </c>
-      <c r="CM5" t="inlineStr">
-        <is>
-          <t>31.72</t>
-        </is>
-      </c>
-      <c r="CN5" t="inlineStr">
-        <is>
-          <t>31.72</t>
-        </is>
-      </c>
-      <c r="CO5" t="inlineStr">
-        <is>
-          <t>31.72</t>
-        </is>
-      </c>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="inlineStr"/>
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr"/>
+      <c r="CW5" t="inlineStr"/>
+      <c r="CX5" t="inlineStr"/>
+      <c r="CY5" t="inlineStr"/>
+      <c r="CZ5" t="inlineStr"/>
+      <c r="DA5" t="inlineStr"/>
+      <c r="DB5" t="inlineStr"/>
+      <c r="DC5" t="inlineStr"/>
+      <c r="DD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -2382,89 +2457,89 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
+          <t>31.10</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
           <t>33.38</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>33.38</t>
         </is>
       </c>
-      <c r="AN6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>33.38</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>33.38</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>33.95</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>33.95</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
         <is>
           <t>33.38</t>
         </is>
       </c>
-      <c r="AS6" t="inlineStr">
+      <c r="AT6" t="inlineStr">
         <is>
           <t>33.38</t>
         </is>
       </c>
-      <c r="AT6" t="inlineStr">
+      <c r="AU6" t="inlineStr">
         <is>
           <t>33.95</t>
         </is>
       </c>
-      <c r="AU6" t="inlineStr">
+      <c r="AV6" t="inlineStr">
         <is>
           <t>33.95</t>
         </is>
       </c>
-      <c r="AV6" t="inlineStr">
+      <c r="AW6" t="inlineStr">
         <is>
           <t>37.76</t>
         </is>
       </c>
-      <c r="AW6" t="inlineStr">
+      <c r="AX6" t="inlineStr">
         <is>
           <t>33.95</t>
         </is>
       </c>
-      <c r="AX6" t="inlineStr">
+      <c r="AY6" t="inlineStr">
         <is>
           <t>33.95</t>
         </is>
       </c>
-      <c r="AY6" t="inlineStr">
+      <c r="AZ6" t="inlineStr">
         <is>
           <t>33.38</t>
         </is>
       </c>
-      <c r="AZ6" t="inlineStr">
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>31.10</t>
+        </is>
+      </c>
+      <c r="BB6" t="inlineStr">
         <is>
           <t>33.38</t>
         </is>
       </c>
-      <c r="BA6" t="inlineStr">
-        <is>
-          <t>31.10</t>
-        </is>
-      </c>
-      <c r="BB6" t="inlineStr">
-        <is>
-          <t>31.10</t>
-        </is>
-      </c>
       <c r="BC6" t="inlineStr">
         <is>
           <t>36.13</t>
@@ -2522,144 +2597,159 @@
       </c>
       <c r="BN6" t="inlineStr">
         <is>
+          <t>41.23</t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
           <t>40.24</t>
         </is>
       </c>
-      <c r="BO6" t="inlineStr">
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>37.76</t>
+        </is>
+      </c>
+      <c r="BQ6" t="inlineStr">
+        <is>
+          <t>37.76</t>
+        </is>
+      </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>37.76</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
         <is>
           <t>40.24</t>
         </is>
       </c>
-      <c r="BP6" t="inlineStr">
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>42.22</t>
+        </is>
+      </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>42.22</t>
+        </is>
+      </c>
+      <c r="BV6" t="inlineStr">
         <is>
           <t>41.23</t>
         </is>
       </c>
-      <c r="BQ6" t="inlineStr">
+      <c r="BW6" t="inlineStr">
+        <is>
+          <t>41.23</t>
+        </is>
+      </c>
+      <c r="BX6" t="inlineStr">
+        <is>
+          <t>42.22</t>
+        </is>
+      </c>
+      <c r="BY6" t="inlineStr">
+        <is>
+          <t>42.22</t>
+        </is>
+      </c>
+      <c r="BZ6" t="inlineStr">
+        <is>
+          <t>42.22</t>
+        </is>
+      </c>
+      <c r="CA6" t="inlineStr">
+        <is>
+          <t>41.23</t>
+        </is>
+      </c>
+      <c r="CB6" t="inlineStr">
+        <is>
+          <t>41.23</t>
+        </is>
+      </c>
+      <c r="CC6" t="inlineStr">
+        <is>
+          <t>42.22</t>
+        </is>
+      </c>
+      <c r="CD6" t="inlineStr">
+        <is>
+          <t>42.22</t>
+        </is>
+      </c>
+      <c r="CE6" t="inlineStr">
+        <is>
+          <t>41.23</t>
+        </is>
+      </c>
+      <c r="CF6" t="inlineStr">
+        <is>
+          <t>40.24</t>
+        </is>
+      </c>
+      <c r="CG6" t="inlineStr">
+        <is>
+          <t>40.24</t>
+        </is>
+      </c>
+      <c r="CH6" t="inlineStr">
+        <is>
+          <t>42.22</t>
+        </is>
+      </c>
+      <c r="CI6" t="inlineStr">
+        <is>
+          <t>42.22</t>
+        </is>
+      </c>
+      <c r="CJ6" t="inlineStr">
+        <is>
+          <t>42.22</t>
+        </is>
+      </c>
+      <c r="CK6" t="inlineStr">
+        <is>
+          <t>41.23</t>
+        </is>
+      </c>
+      <c r="CL6" t="inlineStr">
+        <is>
+          <t>41.23</t>
+        </is>
+      </c>
+      <c r="CM6" t="inlineStr">
         <is>
           <t>37.76</t>
         </is>
       </c>
-      <c r="BR6" t="inlineStr">
+      <c r="CN6" t="inlineStr">
         <is>
           <t>37.76</t>
         </is>
       </c>
-      <c r="BS6" t="inlineStr">
+      <c r="CO6" t="inlineStr">
         <is>
           <t>37.76</t>
         </is>
       </c>
-      <c r="BT6" t="inlineStr">
-        <is>
-          <t>42.22</t>
-        </is>
-      </c>
-      <c r="BU6" t="inlineStr">
-        <is>
-          <t>42.22</t>
-        </is>
-      </c>
-      <c r="BV6" t="inlineStr">
-        <is>
-          <t>41.23</t>
-        </is>
-      </c>
-      <c r="BW6" t="inlineStr">
-        <is>
-          <t>41.23</t>
-        </is>
-      </c>
-      <c r="BX6" t="inlineStr">
-        <is>
-          <t>41.23</t>
-        </is>
-      </c>
-      <c r="BY6" t="inlineStr">
-        <is>
-          <t>41.23</t>
-        </is>
-      </c>
-      <c r="BZ6" t="inlineStr">
-        <is>
-          <t>41.23</t>
-        </is>
-      </c>
-      <c r="CA6" t="inlineStr">
-        <is>
-          <t>42.22</t>
-        </is>
-      </c>
-      <c r="CB6" t="inlineStr">
-        <is>
-          <t>42.22</t>
-        </is>
-      </c>
-      <c r="CC6" t="inlineStr">
-        <is>
-          <t>42.22</t>
-        </is>
-      </c>
-      <c r="CD6" t="inlineStr">
-        <is>
-          <t>42.22</t>
-        </is>
-      </c>
-      <c r="CE6" t="inlineStr">
-        <is>
-          <t>42.22</t>
-        </is>
-      </c>
-      <c r="CF6" t="inlineStr">
-        <is>
-          <t>40.24</t>
-        </is>
-      </c>
-      <c r="CG6" t="inlineStr">
-        <is>
-          <t>40.24</t>
-        </is>
-      </c>
-      <c r="CH6" t="inlineStr">
-        <is>
-          <t>42.22</t>
-        </is>
-      </c>
-      <c r="CI6" t="inlineStr">
-        <is>
-          <t>42.22</t>
-        </is>
-      </c>
-      <c r="CJ6" t="inlineStr">
-        <is>
-          <t>42.22</t>
-        </is>
-      </c>
-      <c r="CK6" t="inlineStr">
-        <is>
-          <t>41.23</t>
-        </is>
-      </c>
-      <c r="CL6" t="inlineStr">
-        <is>
-          <t>41.23</t>
-        </is>
-      </c>
-      <c r="CM6" t="inlineStr">
-        <is>
-          <t>37.76</t>
-        </is>
-      </c>
-      <c r="CN6" t="inlineStr">
-        <is>
-          <t>37.76</t>
-        </is>
-      </c>
-      <c r="CO6" t="inlineStr">
-        <is>
-          <t>37.76</t>
-        </is>
-      </c>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="inlineStr"/>
+      <c r="CT6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr"/>
+      <c r="CW6" t="inlineStr"/>
+      <c r="CX6" t="inlineStr"/>
+      <c r="CY6" t="inlineStr"/>
+      <c r="CZ6" t="inlineStr"/>
+      <c r="DA6" t="inlineStr"/>
+      <c r="DB6" t="inlineStr"/>
+      <c r="DC6" t="inlineStr"/>
+      <c r="DD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -2845,89 +2935,89 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
+          <t>36.18</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
           <t>39.29</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>39.29</t>
         </is>
       </c>
-      <c r="AN7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>39.29</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>39.29</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>40.73</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>40.73</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
         <is>
           <t>39.29</t>
         </is>
       </c>
-      <c r="AS7" t="inlineStr">
+      <c r="AT7" t="inlineStr">
         <is>
           <t>39.29</t>
         </is>
       </c>
-      <c r="AT7" t="inlineStr">
+      <c r="AU7" t="inlineStr">
         <is>
           <t>40.73</t>
         </is>
       </c>
-      <c r="AU7" t="inlineStr">
+      <c r="AV7" t="inlineStr">
         <is>
           <t>40.73</t>
         </is>
       </c>
-      <c r="AV7" t="inlineStr">
+      <c r="AW7" t="inlineStr">
         <is>
           <t>46.80</t>
         </is>
       </c>
-      <c r="AW7" t="inlineStr">
+      <c r="AX7" t="inlineStr">
         <is>
           <t>40.73</t>
         </is>
       </c>
-      <c r="AX7" t="inlineStr">
+      <c r="AY7" t="inlineStr">
         <is>
           <t>40.73</t>
         </is>
       </c>
-      <c r="AY7" t="inlineStr">
+      <c r="AZ7" t="inlineStr">
         <is>
           <t>39.29</t>
         </is>
       </c>
-      <c r="AZ7" t="inlineStr">
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>36.18</t>
+        </is>
+      </c>
+      <c r="BB7" t="inlineStr">
         <is>
           <t>39.29</t>
         </is>
       </c>
-      <c r="BA7" t="inlineStr">
-        <is>
-          <t>36.18</t>
-        </is>
-      </c>
-      <c r="BB7" t="inlineStr">
-        <is>
-          <t>36.18</t>
-        </is>
-      </c>
       <c r="BC7" t="inlineStr">
         <is>
           <t>44.22</t>
@@ -2985,144 +3075,159 @@
       </c>
       <c r="BN7" t="inlineStr">
         <is>
+          <t>51.83</t>
+        </is>
+      </c>
+      <c r="BO7" t="inlineStr">
+        <is>
           <t>50.25</t>
         </is>
       </c>
-      <c r="BO7" t="inlineStr">
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>46.80</t>
+        </is>
+      </c>
+      <c r="BQ7" t="inlineStr">
+        <is>
+          <t>46.80</t>
+        </is>
+      </c>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>46.80</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
         <is>
           <t>50.25</t>
         </is>
       </c>
-      <c r="BP7" t="inlineStr">
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>53.42</t>
+        </is>
+      </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>53.42</t>
+        </is>
+      </c>
+      <c r="BV7" t="inlineStr">
         <is>
           <t>51.83</t>
         </is>
       </c>
-      <c r="BQ7" t="inlineStr">
+      <c r="BW7" t="inlineStr">
+        <is>
+          <t>51.83</t>
+        </is>
+      </c>
+      <c r="BX7" t="inlineStr">
+        <is>
+          <t>53.42</t>
+        </is>
+      </c>
+      <c r="BY7" t="inlineStr">
+        <is>
+          <t>53.42</t>
+        </is>
+      </c>
+      <c r="BZ7" t="inlineStr">
+        <is>
+          <t>53.42</t>
+        </is>
+      </c>
+      <c r="CA7" t="inlineStr">
+        <is>
+          <t>51.83</t>
+        </is>
+      </c>
+      <c r="CB7" t="inlineStr">
+        <is>
+          <t>51.83</t>
+        </is>
+      </c>
+      <c r="CC7" t="inlineStr">
+        <is>
+          <t>53.42</t>
+        </is>
+      </c>
+      <c r="CD7" t="inlineStr">
+        <is>
+          <t>53.42</t>
+        </is>
+      </c>
+      <c r="CE7" t="inlineStr">
+        <is>
+          <t>51.83</t>
+        </is>
+      </c>
+      <c r="CF7" t="inlineStr">
+        <is>
+          <t>50.25</t>
+        </is>
+      </c>
+      <c r="CG7" t="inlineStr">
+        <is>
+          <t>50.25</t>
+        </is>
+      </c>
+      <c r="CH7" t="inlineStr">
+        <is>
+          <t>53.42</t>
+        </is>
+      </c>
+      <c r="CI7" t="inlineStr">
+        <is>
+          <t>53.42</t>
+        </is>
+      </c>
+      <c r="CJ7" t="inlineStr">
+        <is>
+          <t>53.42</t>
+        </is>
+      </c>
+      <c r="CK7" t="inlineStr">
+        <is>
+          <t>51.83</t>
+        </is>
+      </c>
+      <c r="CL7" t="inlineStr">
+        <is>
+          <t>51.83</t>
+        </is>
+      </c>
+      <c r="CM7" t="inlineStr">
         <is>
           <t>46.80</t>
         </is>
       </c>
-      <c r="BR7" t="inlineStr">
+      <c r="CN7" t="inlineStr">
         <is>
           <t>46.80</t>
         </is>
       </c>
-      <c r="BS7" t="inlineStr">
+      <c r="CO7" t="inlineStr">
         <is>
           <t>46.80</t>
         </is>
       </c>
-      <c r="BT7" t="inlineStr">
-        <is>
-          <t>53.42</t>
-        </is>
-      </c>
-      <c r="BU7" t="inlineStr">
-        <is>
-          <t>53.42</t>
-        </is>
-      </c>
-      <c r="BV7" t="inlineStr">
-        <is>
-          <t>51.83</t>
-        </is>
-      </c>
-      <c r="BW7" t="inlineStr">
-        <is>
-          <t>51.83</t>
-        </is>
-      </c>
-      <c r="BX7" t="inlineStr">
-        <is>
-          <t>51.83</t>
-        </is>
-      </c>
-      <c r="BY7" t="inlineStr">
-        <is>
-          <t>51.83</t>
-        </is>
-      </c>
-      <c r="BZ7" t="inlineStr">
-        <is>
-          <t>51.83</t>
-        </is>
-      </c>
-      <c r="CA7" t="inlineStr">
-        <is>
-          <t>53.42</t>
-        </is>
-      </c>
-      <c r="CB7" t="inlineStr">
-        <is>
-          <t>53.42</t>
-        </is>
-      </c>
-      <c r="CC7" t="inlineStr">
-        <is>
-          <t>53.42</t>
-        </is>
-      </c>
-      <c r="CD7" t="inlineStr">
-        <is>
-          <t>53.42</t>
-        </is>
-      </c>
-      <c r="CE7" t="inlineStr">
-        <is>
-          <t>53.42</t>
-        </is>
-      </c>
-      <c r="CF7" t="inlineStr">
-        <is>
-          <t>50.25</t>
-        </is>
-      </c>
-      <c r="CG7" t="inlineStr">
-        <is>
-          <t>50.25</t>
-        </is>
-      </c>
-      <c r="CH7" t="inlineStr">
-        <is>
-          <t>53.42</t>
-        </is>
-      </c>
-      <c r="CI7" t="inlineStr">
-        <is>
-          <t>53.42</t>
-        </is>
-      </c>
-      <c r="CJ7" t="inlineStr">
-        <is>
-          <t>53.42</t>
-        </is>
-      </c>
-      <c r="CK7" t="inlineStr">
-        <is>
-          <t>51.83</t>
-        </is>
-      </c>
-      <c r="CL7" t="inlineStr">
-        <is>
-          <t>51.83</t>
-        </is>
-      </c>
-      <c r="CM7" t="inlineStr">
-        <is>
-          <t>46.80</t>
-        </is>
-      </c>
-      <c r="CN7" t="inlineStr">
-        <is>
-          <t>46.80</t>
-        </is>
-      </c>
-      <c r="CO7" t="inlineStr">
-        <is>
-          <t>46.80</t>
-        </is>
-      </c>
+      <c r="CP7" t="inlineStr"/>
+      <c r="CQ7" t="inlineStr"/>
+      <c r="CR7" t="inlineStr"/>
+      <c r="CS7" t="inlineStr"/>
+      <c r="CT7" t="inlineStr"/>
+      <c r="CU7" t="inlineStr"/>
+      <c r="CV7" t="inlineStr"/>
+      <c r="CW7" t="inlineStr"/>
+      <c r="CX7" t="inlineStr"/>
+      <c r="CY7" t="inlineStr"/>
+      <c r="CZ7" t="inlineStr"/>
+      <c r="DA7" t="inlineStr"/>
+      <c r="DB7" t="inlineStr"/>
+      <c r="DC7" t="inlineStr"/>
+      <c r="DD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -3308,89 +3413,89 @@
       </c>
       <c r="AL8" t="inlineStr">
         <is>
+          <t>41.13</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
           <t>44.81</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>44.81</t>
         </is>
       </c>
-      <c r="AN8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>44.81</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>44.81</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>46.67</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>46.67</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
         <is>
           <t>44.81</t>
         </is>
       </c>
-      <c r="AS8" t="inlineStr">
+      <c r="AT8" t="inlineStr">
         <is>
           <t>44.81</t>
         </is>
       </c>
-      <c r="AT8" t="inlineStr">
+      <c r="AU8" t="inlineStr">
         <is>
           <t>46.67</t>
         </is>
       </c>
-      <c r="AU8" t="inlineStr">
+      <c r="AV8" t="inlineStr">
         <is>
           <t>46.67</t>
         </is>
       </c>
-      <c r="AV8" t="inlineStr">
+      <c r="AW8" t="inlineStr">
         <is>
           <t>54.03</t>
         </is>
       </c>
-      <c r="AW8" t="inlineStr">
+      <c r="AX8" t="inlineStr">
         <is>
           <t>46.67</t>
         </is>
       </c>
-      <c r="AX8" t="inlineStr">
+      <c r="AY8" t="inlineStr">
         <is>
           <t>46.67</t>
         </is>
       </c>
-      <c r="AY8" t="inlineStr">
+      <c r="AZ8" t="inlineStr">
         <is>
           <t>44.81</t>
         </is>
       </c>
-      <c r="AZ8" t="inlineStr">
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>41.13</t>
+        </is>
+      </c>
+      <c r="BB8" t="inlineStr">
         <is>
           <t>44.81</t>
         </is>
       </c>
-      <c r="BA8" t="inlineStr">
-        <is>
-          <t>41.13</t>
-        </is>
-      </c>
-      <c r="BB8" t="inlineStr">
-        <is>
-          <t>41.13</t>
-        </is>
-      </c>
       <c r="BC8" t="inlineStr">
         <is>
           <t>50.90</t>
@@ -3448,144 +3553,159 @@
       </c>
       <c r="BN8" t="inlineStr">
         <is>
+          <t>60.04</t>
+        </is>
+      </c>
+      <c r="BO8" t="inlineStr">
+        <is>
           <t>58.12</t>
         </is>
       </c>
-      <c r="BO8" t="inlineStr">
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>54.03</t>
+        </is>
+      </c>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t>54.03</t>
+        </is>
+      </c>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>54.03</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
         <is>
           <t>58.12</t>
         </is>
       </c>
-      <c r="BP8" t="inlineStr">
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="BV8" t="inlineStr">
         <is>
           <t>60.04</t>
         </is>
       </c>
-      <c r="BQ8" t="inlineStr">
+      <c r="BW8" t="inlineStr">
+        <is>
+          <t>60.04</t>
+        </is>
+      </c>
+      <c r="BX8" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="BY8" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="BZ8" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="CA8" t="inlineStr">
+        <is>
+          <t>60.04</t>
+        </is>
+      </c>
+      <c r="CB8" t="inlineStr">
+        <is>
+          <t>60.04</t>
+        </is>
+      </c>
+      <c r="CC8" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="CD8" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="CE8" t="inlineStr">
+        <is>
+          <t>60.04</t>
+        </is>
+      </c>
+      <c r="CF8" t="inlineStr">
+        <is>
+          <t>58.12</t>
+        </is>
+      </c>
+      <c r="CG8" t="inlineStr">
+        <is>
+          <t>58.12</t>
+        </is>
+      </c>
+      <c r="CH8" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="CI8" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="CJ8" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="CK8" t="inlineStr">
+        <is>
+          <t>60.04</t>
+        </is>
+      </c>
+      <c r="CL8" t="inlineStr">
+        <is>
+          <t>60.04</t>
+        </is>
+      </c>
+      <c r="CM8" t="inlineStr">
         <is>
           <t>54.03</t>
         </is>
       </c>
-      <c r="BR8" t="inlineStr">
+      <c r="CN8" t="inlineStr">
         <is>
           <t>54.03</t>
         </is>
       </c>
-      <c r="BS8" t="inlineStr">
+      <c r="CO8" t="inlineStr">
         <is>
           <t>54.03</t>
         </is>
       </c>
-      <c r="BT8" t="inlineStr">
-        <is>
-          <t>61.95</t>
-        </is>
-      </c>
-      <c r="BU8" t="inlineStr">
-        <is>
-          <t>61.95</t>
-        </is>
-      </c>
-      <c r="BV8" t="inlineStr">
-        <is>
-          <t>60.04</t>
-        </is>
-      </c>
-      <c r="BW8" t="inlineStr">
-        <is>
-          <t>60.04</t>
-        </is>
-      </c>
-      <c r="BX8" t="inlineStr">
-        <is>
-          <t>60.04</t>
-        </is>
-      </c>
-      <c r="BY8" t="inlineStr">
-        <is>
-          <t>60.04</t>
-        </is>
-      </c>
-      <c r="BZ8" t="inlineStr">
-        <is>
-          <t>60.04</t>
-        </is>
-      </c>
-      <c r="CA8" t="inlineStr">
-        <is>
-          <t>61.95</t>
-        </is>
-      </c>
-      <c r="CB8" t="inlineStr">
-        <is>
-          <t>61.95</t>
-        </is>
-      </c>
-      <c r="CC8" t="inlineStr">
-        <is>
-          <t>61.95</t>
-        </is>
-      </c>
-      <c r="CD8" t="inlineStr">
-        <is>
-          <t>61.95</t>
-        </is>
-      </c>
-      <c r="CE8" t="inlineStr">
-        <is>
-          <t>61.95</t>
-        </is>
-      </c>
-      <c r="CF8" t="inlineStr">
-        <is>
-          <t>58.12</t>
-        </is>
-      </c>
-      <c r="CG8" t="inlineStr">
-        <is>
-          <t>58.12</t>
-        </is>
-      </c>
-      <c r="CH8" t="inlineStr">
-        <is>
-          <t>61.95</t>
-        </is>
-      </c>
-      <c r="CI8" t="inlineStr">
-        <is>
-          <t>61.95</t>
-        </is>
-      </c>
-      <c r="CJ8" t="inlineStr">
-        <is>
-          <t>61.95</t>
-        </is>
-      </c>
-      <c r="CK8" t="inlineStr">
-        <is>
-          <t>60.04</t>
-        </is>
-      </c>
-      <c r="CL8" t="inlineStr">
-        <is>
-          <t>60.04</t>
-        </is>
-      </c>
-      <c r="CM8" t="inlineStr">
-        <is>
-          <t>54.03</t>
-        </is>
-      </c>
-      <c r="CN8" t="inlineStr">
-        <is>
-          <t>54.03</t>
-        </is>
-      </c>
-      <c r="CO8" t="inlineStr">
-        <is>
-          <t>54.03</t>
-        </is>
-      </c>
+      <c r="CP8" t="inlineStr"/>
+      <c r="CQ8" t="inlineStr"/>
+      <c r="CR8" t="inlineStr"/>
+      <c r="CS8" t="inlineStr"/>
+      <c r="CT8" t="inlineStr"/>
+      <c r="CU8" t="inlineStr"/>
+      <c r="CV8" t="inlineStr"/>
+      <c r="CW8" t="inlineStr"/>
+      <c r="CX8" t="inlineStr"/>
+      <c r="CY8" t="inlineStr"/>
+      <c r="CZ8" t="inlineStr"/>
+      <c r="DA8" t="inlineStr"/>
+      <c r="DB8" t="inlineStr"/>
+      <c r="DC8" t="inlineStr"/>
+      <c r="DD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -3771,89 +3891,89 @@
       </c>
       <c r="AL9" t="inlineStr">
         <is>
+          <t>45.52</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
           <t>49.38</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>49.38</t>
         </is>
       </c>
-      <c r="AN9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>49.38</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>49.38</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>51.12</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>51.12</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
         <is>
           <t>49.38</t>
         </is>
       </c>
-      <c r="AS9" t="inlineStr">
+      <c r="AT9" t="inlineStr">
         <is>
           <t>49.38</t>
         </is>
       </c>
-      <c r="AT9" t="inlineStr">
+      <c r="AU9" t="inlineStr">
         <is>
           <t>51.12</t>
         </is>
       </c>
-      <c r="AU9" t="inlineStr">
+      <c r="AV9" t="inlineStr">
         <is>
           <t>51.12</t>
         </is>
       </c>
-      <c r="AV9" t="inlineStr">
+      <c r="AW9" t="inlineStr">
         <is>
           <t>58.58</t>
         </is>
       </c>
-      <c r="AW9" t="inlineStr">
+      <c r="AX9" t="inlineStr">
         <is>
           <t>51.12</t>
         </is>
       </c>
-      <c r="AX9" t="inlineStr">
+      <c r="AY9" t="inlineStr">
         <is>
           <t>51.12</t>
         </is>
       </c>
-      <c r="AY9" t="inlineStr">
+      <c r="AZ9" t="inlineStr">
         <is>
           <t>49.38</t>
         </is>
       </c>
-      <c r="AZ9" t="inlineStr">
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>45.52</t>
+        </is>
+      </c>
+      <c r="BB9" t="inlineStr">
         <is>
           <t>49.38</t>
         </is>
       </c>
-      <c r="BA9" t="inlineStr">
-        <is>
-          <t>45.52</t>
-        </is>
-      </c>
-      <c r="BB9" t="inlineStr">
-        <is>
-          <t>45.52</t>
-        </is>
-      </c>
       <c r="BC9" t="inlineStr">
         <is>
           <t>55.42</t>
@@ -3911,144 +4031,159 @@
       </c>
       <c r="BN9" t="inlineStr">
         <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="BO9" t="inlineStr">
+        <is>
           <t>62.87</t>
         </is>
       </c>
-      <c r="BO9" t="inlineStr">
+      <c r="BP9" t="inlineStr">
+        <is>
+          <t>58.58</t>
+        </is>
+      </c>
+      <c r="BQ9" t="inlineStr">
+        <is>
+          <t>58.58</t>
+        </is>
+      </c>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>58.58</t>
+        </is>
+      </c>
+      <c r="BS9" t="inlineStr">
         <is>
           <t>62.87</t>
         </is>
       </c>
-      <c r="BP9" t="inlineStr">
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="BV9" t="inlineStr">
         <is>
           <t>64.82</t>
         </is>
       </c>
-      <c r="BQ9" t="inlineStr">
+      <c r="BW9" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="BX9" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="BY9" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="BZ9" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="CA9" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="CB9" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="CC9" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="CD9" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="CE9" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="CF9" t="inlineStr">
+        <is>
+          <t>62.87</t>
+        </is>
+      </c>
+      <c r="CG9" t="inlineStr">
+        <is>
+          <t>62.87</t>
+        </is>
+      </c>
+      <c r="CH9" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="CI9" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="CJ9" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="CK9" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="CL9" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="CM9" t="inlineStr">
         <is>
           <t>58.58</t>
         </is>
       </c>
-      <c r="BR9" t="inlineStr">
+      <c r="CN9" t="inlineStr">
         <is>
           <t>58.58</t>
         </is>
       </c>
-      <c r="BS9" t="inlineStr">
+      <c r="CO9" t="inlineStr">
         <is>
           <t>58.58</t>
         </is>
       </c>
-      <c r="BT9" t="inlineStr">
-        <is>
-          <t>66.78</t>
-        </is>
-      </c>
-      <c r="BU9" t="inlineStr">
-        <is>
-          <t>66.78</t>
-        </is>
-      </c>
-      <c r="BV9" t="inlineStr">
-        <is>
-          <t>64.82</t>
-        </is>
-      </c>
-      <c r="BW9" t="inlineStr">
-        <is>
-          <t>64.82</t>
-        </is>
-      </c>
-      <c r="BX9" t="inlineStr">
-        <is>
-          <t>64.82</t>
-        </is>
-      </c>
-      <c r="BY9" t="inlineStr">
-        <is>
-          <t>64.82</t>
-        </is>
-      </c>
-      <c r="BZ9" t="inlineStr">
-        <is>
-          <t>64.82</t>
-        </is>
-      </c>
-      <c r="CA9" t="inlineStr">
-        <is>
-          <t>66.78</t>
-        </is>
-      </c>
-      <c r="CB9" t="inlineStr">
-        <is>
-          <t>66.78</t>
-        </is>
-      </c>
-      <c r="CC9" t="inlineStr">
-        <is>
-          <t>66.78</t>
-        </is>
-      </c>
-      <c r="CD9" t="inlineStr">
-        <is>
-          <t>66.78</t>
-        </is>
-      </c>
-      <c r="CE9" t="inlineStr">
-        <is>
-          <t>66.78</t>
-        </is>
-      </c>
-      <c r="CF9" t="inlineStr">
-        <is>
-          <t>62.87</t>
-        </is>
-      </c>
-      <c r="CG9" t="inlineStr">
-        <is>
-          <t>62.87</t>
-        </is>
-      </c>
-      <c r="CH9" t="inlineStr">
-        <is>
-          <t>66.78</t>
-        </is>
-      </c>
-      <c r="CI9" t="inlineStr">
-        <is>
-          <t>66.78</t>
-        </is>
-      </c>
-      <c r="CJ9" t="inlineStr">
-        <is>
-          <t>66.78</t>
-        </is>
-      </c>
-      <c r="CK9" t="inlineStr">
-        <is>
-          <t>64.82</t>
-        </is>
-      </c>
-      <c r="CL9" t="inlineStr">
-        <is>
-          <t>64.82</t>
-        </is>
-      </c>
-      <c r="CM9" t="inlineStr">
-        <is>
-          <t>58.58</t>
-        </is>
-      </c>
-      <c r="CN9" t="inlineStr">
-        <is>
-          <t>58.58</t>
-        </is>
-      </c>
-      <c r="CO9" t="inlineStr">
-        <is>
-          <t>58.58</t>
-        </is>
-      </c>
+      <c r="CP9" t="inlineStr"/>
+      <c r="CQ9" t="inlineStr"/>
+      <c r="CR9" t="inlineStr"/>
+      <c r="CS9" t="inlineStr"/>
+      <c r="CT9" t="inlineStr"/>
+      <c r="CU9" t="inlineStr"/>
+      <c r="CV9" t="inlineStr"/>
+      <c r="CW9" t="inlineStr"/>
+      <c r="CX9" t="inlineStr"/>
+      <c r="CY9" t="inlineStr"/>
+      <c r="CZ9" t="inlineStr"/>
+      <c r="DA9" t="inlineStr"/>
+      <c r="DB9" t="inlineStr"/>
+      <c r="DC9" t="inlineStr"/>
+      <c r="DD9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -4234,89 +4369,89 @@
       </c>
       <c r="AL10" t="inlineStr">
         <is>
+          <t>49.40</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
           <t>53.75</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>53.75</t>
         </is>
       </c>
-      <c r="AN10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>53.75</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>53.75</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>55.91</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>55.91</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
         <is>
           <t>53.75</t>
         </is>
       </c>
-      <c r="AS10" t="inlineStr">
+      <c r="AT10" t="inlineStr">
         <is>
           <t>53.75</t>
         </is>
       </c>
-      <c r="AT10" t="inlineStr">
+      <c r="AU10" t="inlineStr">
         <is>
           <t>55.91</t>
         </is>
       </c>
-      <c r="AU10" t="inlineStr">
+      <c r="AV10" t="inlineStr">
         <is>
           <t>55.91</t>
         </is>
       </c>
-      <c r="AV10" t="inlineStr">
+      <c r="AW10" t="inlineStr">
         <is>
           <t>64.60</t>
         </is>
       </c>
-      <c r="AW10" t="inlineStr">
+      <c r="AX10" t="inlineStr">
         <is>
           <t>55.91</t>
         </is>
       </c>
-      <c r="AX10" t="inlineStr">
+      <c r="AY10" t="inlineStr">
         <is>
           <t>55.91</t>
         </is>
       </c>
-      <c r="AY10" t="inlineStr">
+      <c r="AZ10" t="inlineStr">
         <is>
           <t>53.75</t>
         </is>
       </c>
-      <c r="AZ10" t="inlineStr">
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>49.40</t>
+        </is>
+      </c>
+      <c r="BB10" t="inlineStr">
         <is>
           <t>53.75</t>
         </is>
       </c>
-      <c r="BA10" t="inlineStr">
-        <is>
-          <t>49.40</t>
-        </is>
-      </c>
-      <c r="BB10" t="inlineStr">
-        <is>
-          <t>49.40</t>
-        </is>
-      </c>
       <c r="BC10" t="inlineStr">
         <is>
           <t>60.91</t>
@@ -4374,144 +4509,159 @@
       </c>
       <c r="BN10" t="inlineStr">
         <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="BO10" t="inlineStr">
+        <is>
           <t>69.44</t>
         </is>
       </c>
-      <c r="BO10" t="inlineStr">
+      <c r="BP10" t="inlineStr">
+        <is>
+          <t>64.60</t>
+        </is>
+      </c>
+      <c r="BQ10" t="inlineStr">
+        <is>
+          <t>64.60</t>
+        </is>
+      </c>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>64.60</t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr">
         <is>
           <t>69.44</t>
         </is>
       </c>
-      <c r="BP10" t="inlineStr">
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>73.97</t>
+        </is>
+      </c>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>73.97</t>
+        </is>
+      </c>
+      <c r="BV10" t="inlineStr">
         <is>
           <t>71.71</t>
         </is>
       </c>
-      <c r="BQ10" t="inlineStr">
+      <c r="BW10" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="BX10" t="inlineStr">
+        <is>
+          <t>73.97</t>
+        </is>
+      </c>
+      <c r="BY10" t="inlineStr">
+        <is>
+          <t>73.97</t>
+        </is>
+      </c>
+      <c r="BZ10" t="inlineStr">
+        <is>
+          <t>73.97</t>
+        </is>
+      </c>
+      <c r="CA10" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="CB10" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="CC10" t="inlineStr">
+        <is>
+          <t>73.97</t>
+        </is>
+      </c>
+      <c r="CD10" t="inlineStr">
+        <is>
+          <t>73.97</t>
+        </is>
+      </c>
+      <c r="CE10" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="CF10" t="inlineStr">
+        <is>
+          <t>69.44</t>
+        </is>
+      </c>
+      <c r="CG10" t="inlineStr">
+        <is>
+          <t>69.44</t>
+        </is>
+      </c>
+      <c r="CH10" t="inlineStr">
+        <is>
+          <t>73.97</t>
+        </is>
+      </c>
+      <c r="CI10" t="inlineStr">
+        <is>
+          <t>73.97</t>
+        </is>
+      </c>
+      <c r="CJ10" t="inlineStr">
+        <is>
+          <t>73.97</t>
+        </is>
+      </c>
+      <c r="CK10" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="CL10" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="CM10" t="inlineStr">
         <is>
           <t>64.60</t>
         </is>
       </c>
-      <c r="BR10" t="inlineStr">
+      <c r="CN10" t="inlineStr">
         <is>
           <t>64.60</t>
         </is>
       </c>
-      <c r="BS10" t="inlineStr">
+      <c r="CO10" t="inlineStr">
         <is>
           <t>64.60</t>
         </is>
       </c>
-      <c r="BT10" t="inlineStr">
-        <is>
-          <t>73.97</t>
-        </is>
-      </c>
-      <c r="BU10" t="inlineStr">
-        <is>
-          <t>73.97</t>
-        </is>
-      </c>
-      <c r="BV10" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="BW10" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="BX10" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="BY10" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="BZ10" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="CA10" t="inlineStr">
-        <is>
-          <t>73.97</t>
-        </is>
-      </c>
-      <c r="CB10" t="inlineStr">
-        <is>
-          <t>73.97</t>
-        </is>
-      </c>
-      <c r="CC10" t="inlineStr">
-        <is>
-          <t>73.97</t>
-        </is>
-      </c>
-      <c r="CD10" t="inlineStr">
-        <is>
-          <t>73.97</t>
-        </is>
-      </c>
-      <c r="CE10" t="inlineStr">
-        <is>
-          <t>73.97</t>
-        </is>
-      </c>
-      <c r="CF10" t="inlineStr">
-        <is>
-          <t>69.44</t>
-        </is>
-      </c>
-      <c r="CG10" t="inlineStr">
-        <is>
-          <t>69.44</t>
-        </is>
-      </c>
-      <c r="CH10" t="inlineStr">
-        <is>
-          <t>73.97</t>
-        </is>
-      </c>
-      <c r="CI10" t="inlineStr">
-        <is>
-          <t>73.97</t>
-        </is>
-      </c>
-      <c r="CJ10" t="inlineStr">
-        <is>
-          <t>73.97</t>
-        </is>
-      </c>
-      <c r="CK10" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="CL10" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="CM10" t="inlineStr">
-        <is>
-          <t>64.60</t>
-        </is>
-      </c>
-      <c r="CN10" t="inlineStr">
-        <is>
-          <t>64.60</t>
-        </is>
-      </c>
-      <c r="CO10" t="inlineStr">
-        <is>
-          <t>64.60</t>
-        </is>
-      </c>
+      <c r="CP10" t="inlineStr"/>
+      <c r="CQ10" t="inlineStr"/>
+      <c r="CR10" t="inlineStr"/>
+      <c r="CS10" t="inlineStr"/>
+      <c r="CT10" t="inlineStr"/>
+      <c r="CU10" t="inlineStr"/>
+      <c r="CV10" t="inlineStr"/>
+      <c r="CW10" t="inlineStr"/>
+      <c r="CX10" t="inlineStr"/>
+      <c r="CY10" t="inlineStr"/>
+      <c r="CZ10" t="inlineStr"/>
+      <c r="DA10" t="inlineStr"/>
+      <c r="DB10" t="inlineStr"/>
+      <c r="DC10" t="inlineStr"/>
+      <c r="DD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -4697,89 +4847,89 @@
       </c>
       <c r="AL11" t="inlineStr">
         <is>
+          <t>55.84</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
           <t>60.31</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>60.31</t>
         </is>
       </c>
-      <c r="AN11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>60.31</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>60.31</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>62.04</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>62.04</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
         <is>
           <t>60.31</t>
         </is>
       </c>
-      <c r="AS11" t="inlineStr">
+      <c r="AT11" t="inlineStr">
         <is>
           <t>60.31</t>
         </is>
       </c>
-      <c r="AT11" t="inlineStr">
+      <c r="AU11" t="inlineStr">
         <is>
           <t>62.04</t>
         </is>
       </c>
-      <c r="AU11" t="inlineStr">
+      <c r="AV11" t="inlineStr">
         <is>
           <t>62.04</t>
         </is>
       </c>
-      <c r="AV11" t="inlineStr">
+      <c r="AW11" t="inlineStr">
         <is>
           <t>70.31</t>
         </is>
       </c>
-      <c r="AW11" t="inlineStr">
+      <c r="AX11" t="inlineStr">
         <is>
           <t>62.04</t>
         </is>
       </c>
-      <c r="AX11" t="inlineStr">
+      <c r="AY11" t="inlineStr">
         <is>
           <t>62.04</t>
         </is>
       </c>
-      <c r="AY11" t="inlineStr">
+      <c r="AZ11" t="inlineStr">
         <is>
           <t>60.31</t>
         </is>
       </c>
-      <c r="AZ11" t="inlineStr">
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>55.84</t>
+        </is>
+      </c>
+      <c r="BB11" t="inlineStr">
         <is>
           <t>60.31</t>
         </is>
       </c>
-      <c r="BA11" t="inlineStr">
-        <is>
-          <t>55.84</t>
-        </is>
-      </c>
-      <c r="BB11" t="inlineStr">
-        <is>
-          <t>55.84</t>
-        </is>
-      </c>
       <c r="BC11" t="inlineStr">
         <is>
           <t>66.79</t>
@@ -4837,144 +4987,159 @@
       </c>
       <c r="BN11" t="inlineStr">
         <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="BO11" t="inlineStr">
+        <is>
           <t>75.27</t>
         </is>
       </c>
-      <c r="BO11" t="inlineStr">
+      <c r="BP11" t="inlineStr">
+        <is>
+          <t>70.31</t>
+        </is>
+      </c>
+      <c r="BQ11" t="inlineStr">
+        <is>
+          <t>70.31</t>
+        </is>
+      </c>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>70.31</t>
+        </is>
+      </c>
+      <c r="BS11" t="inlineStr">
         <is>
           <t>75.27</t>
         </is>
       </c>
-      <c r="BP11" t="inlineStr">
+      <c r="BT11" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="BU11" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="BV11" t="inlineStr">
         <is>
           <t>77.42</t>
         </is>
       </c>
-      <c r="BQ11" t="inlineStr">
+      <c r="BW11" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="BX11" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="BY11" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="BZ11" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="CA11" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="CB11" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="CC11" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="CD11" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="CE11" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="CF11" t="inlineStr">
+        <is>
+          <t>75.27</t>
+        </is>
+      </c>
+      <c r="CG11" t="inlineStr">
+        <is>
+          <t>75.27</t>
+        </is>
+      </c>
+      <c r="CH11" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="CI11" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="CJ11" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="CK11" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="CL11" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="CM11" t="inlineStr">
         <is>
           <t>70.31</t>
         </is>
       </c>
-      <c r="BR11" t="inlineStr">
+      <c r="CN11" t="inlineStr">
         <is>
           <t>70.31</t>
         </is>
       </c>
-      <c r="BS11" t="inlineStr">
+      <c r="CO11" t="inlineStr">
         <is>
           <t>70.31</t>
         </is>
       </c>
-      <c r="BT11" t="inlineStr">
-        <is>
-          <t>79.58</t>
-        </is>
-      </c>
-      <c r="BU11" t="inlineStr">
-        <is>
-          <t>79.58</t>
-        </is>
-      </c>
-      <c r="BV11" t="inlineStr">
-        <is>
-          <t>77.42</t>
-        </is>
-      </c>
-      <c r="BW11" t="inlineStr">
-        <is>
-          <t>77.42</t>
-        </is>
-      </c>
-      <c r="BX11" t="inlineStr">
-        <is>
-          <t>77.42</t>
-        </is>
-      </c>
-      <c r="BY11" t="inlineStr">
-        <is>
-          <t>77.42</t>
-        </is>
-      </c>
-      <c r="BZ11" t="inlineStr">
-        <is>
-          <t>77.42</t>
-        </is>
-      </c>
-      <c r="CA11" t="inlineStr">
-        <is>
-          <t>79.58</t>
-        </is>
-      </c>
-      <c r="CB11" t="inlineStr">
-        <is>
-          <t>79.58</t>
-        </is>
-      </c>
-      <c r="CC11" t="inlineStr">
-        <is>
-          <t>79.58</t>
-        </is>
-      </c>
-      <c r="CD11" t="inlineStr">
-        <is>
-          <t>79.58</t>
-        </is>
-      </c>
-      <c r="CE11" t="inlineStr">
-        <is>
-          <t>79.58</t>
-        </is>
-      </c>
-      <c r="CF11" t="inlineStr">
-        <is>
-          <t>75.27</t>
-        </is>
-      </c>
-      <c r="CG11" t="inlineStr">
-        <is>
-          <t>75.27</t>
-        </is>
-      </c>
-      <c r="CH11" t="inlineStr">
-        <is>
-          <t>79.58</t>
-        </is>
-      </c>
-      <c r="CI11" t="inlineStr">
-        <is>
-          <t>79.58</t>
-        </is>
-      </c>
-      <c r="CJ11" t="inlineStr">
-        <is>
-          <t>79.58</t>
-        </is>
-      </c>
-      <c r="CK11" t="inlineStr">
-        <is>
-          <t>77.42</t>
-        </is>
-      </c>
-      <c r="CL11" t="inlineStr">
-        <is>
-          <t>77.42</t>
-        </is>
-      </c>
-      <c r="CM11" t="inlineStr">
-        <is>
-          <t>70.31</t>
-        </is>
-      </c>
-      <c r="CN11" t="inlineStr">
-        <is>
-          <t>70.31</t>
-        </is>
-      </c>
-      <c r="CO11" t="inlineStr">
-        <is>
-          <t>70.31</t>
-        </is>
-      </c>
+      <c r="CP11" t="inlineStr"/>
+      <c r="CQ11" t="inlineStr"/>
+      <c r="CR11" t="inlineStr"/>
+      <c r="CS11" t="inlineStr"/>
+      <c r="CT11" t="inlineStr"/>
+      <c r="CU11" t="inlineStr"/>
+      <c r="CV11" t="inlineStr"/>
+      <c r="CW11" t="inlineStr"/>
+      <c r="CX11" t="inlineStr"/>
+      <c r="CY11" t="inlineStr"/>
+      <c r="CZ11" t="inlineStr"/>
+      <c r="DA11" t="inlineStr"/>
+      <c r="DB11" t="inlineStr"/>
+      <c r="DC11" t="inlineStr"/>
+      <c r="DD11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -5160,89 +5325,89 @@
       </c>
       <c r="AL12" t="inlineStr">
         <is>
+          <t>58.65</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
           <t>63.54</t>
         </is>
       </c>
-      <c r="AM12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>63.54</t>
         </is>
       </c>
-      <c r="AN12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>63.54</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>63.54</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>65.64</t>
         </is>
       </c>
-      <c r="AQ12" t="inlineStr">
+      <c r="AR12" t="inlineStr">
         <is>
           <t>65.64</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AS12" t="inlineStr">
         <is>
           <t>63.54</t>
         </is>
       </c>
-      <c r="AS12" t="inlineStr">
+      <c r="AT12" t="inlineStr">
         <is>
           <t>63.54</t>
         </is>
       </c>
-      <c r="AT12" t="inlineStr">
+      <c r="AU12" t="inlineStr">
         <is>
           <t>65.64</t>
         </is>
       </c>
-      <c r="AU12" t="inlineStr">
+      <c r="AV12" t="inlineStr">
         <is>
           <t>65.64</t>
         </is>
       </c>
-      <c r="AV12" t="inlineStr">
+      <c r="AW12" t="inlineStr">
         <is>
           <t>74.98</t>
         </is>
       </c>
-      <c r="AW12" t="inlineStr">
+      <c r="AX12" t="inlineStr">
         <is>
           <t>65.64</t>
         </is>
       </c>
-      <c r="AX12" t="inlineStr">
+      <c r="AY12" t="inlineStr">
         <is>
           <t>65.64</t>
         </is>
       </c>
-      <c r="AY12" t="inlineStr">
+      <c r="AZ12" t="inlineStr">
         <is>
           <t>63.54</t>
         </is>
       </c>
-      <c r="AZ12" t="inlineStr">
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>58.65</t>
+        </is>
+      </c>
+      <c r="BB12" t="inlineStr">
         <is>
           <t>63.54</t>
         </is>
       </c>
-      <c r="BA12" t="inlineStr">
-        <is>
-          <t>58.65</t>
-        </is>
-      </c>
-      <c r="BB12" t="inlineStr">
-        <is>
-          <t>58.65</t>
-        </is>
-      </c>
       <c r="BC12" t="inlineStr">
         <is>
           <t>71.01</t>
@@ -5300,144 +5465,159 @@
       </c>
       <c r="BN12" t="inlineStr">
         <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="BO12" t="inlineStr">
+        <is>
           <t>80.42</t>
         </is>
       </c>
-      <c r="BO12" t="inlineStr">
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>74.98</t>
+        </is>
+      </c>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t>74.98</t>
+        </is>
+      </c>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>74.98</t>
+        </is>
+      </c>
+      <c r="BS12" t="inlineStr">
         <is>
           <t>80.42</t>
         </is>
       </c>
-      <c r="BP12" t="inlineStr">
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="BU12" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="BV12" t="inlineStr">
         <is>
           <t>82.84</t>
         </is>
       </c>
-      <c r="BQ12" t="inlineStr">
+      <c r="BW12" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="BX12" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="BY12" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="BZ12" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="CA12" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="CB12" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="CC12" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="CD12" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="CE12" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="CF12" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="CG12" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="CH12" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="CI12" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="CJ12" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="CK12" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="CL12" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="CM12" t="inlineStr">
         <is>
           <t>74.98</t>
         </is>
       </c>
-      <c r="BR12" t="inlineStr">
+      <c r="CN12" t="inlineStr">
         <is>
           <t>74.98</t>
         </is>
       </c>
-      <c r="BS12" t="inlineStr">
+      <c r="CO12" t="inlineStr">
         <is>
           <t>74.98</t>
         </is>
       </c>
-      <c r="BT12" t="inlineStr">
-        <is>
-          <t>85.27</t>
-        </is>
-      </c>
-      <c r="BU12" t="inlineStr">
-        <is>
-          <t>85.27</t>
-        </is>
-      </c>
-      <c r="BV12" t="inlineStr">
-        <is>
-          <t>82.84</t>
-        </is>
-      </c>
-      <c r="BW12" t="inlineStr">
-        <is>
-          <t>82.84</t>
-        </is>
-      </c>
-      <c r="BX12" t="inlineStr">
-        <is>
-          <t>82.84</t>
-        </is>
-      </c>
-      <c r="BY12" t="inlineStr">
-        <is>
-          <t>82.84</t>
-        </is>
-      </c>
-      <c r="BZ12" t="inlineStr">
-        <is>
-          <t>82.84</t>
-        </is>
-      </c>
-      <c r="CA12" t="inlineStr">
-        <is>
-          <t>85.27</t>
-        </is>
-      </c>
-      <c r="CB12" t="inlineStr">
-        <is>
-          <t>85.27</t>
-        </is>
-      </c>
-      <c r="CC12" t="inlineStr">
-        <is>
-          <t>85.27</t>
-        </is>
-      </c>
-      <c r="CD12" t="inlineStr">
-        <is>
-          <t>85.27</t>
-        </is>
-      </c>
-      <c r="CE12" t="inlineStr">
-        <is>
-          <t>85.27</t>
-        </is>
-      </c>
-      <c r="CF12" t="inlineStr">
-        <is>
-          <t>80.42</t>
-        </is>
-      </c>
-      <c r="CG12" t="inlineStr">
-        <is>
-          <t>80.42</t>
-        </is>
-      </c>
-      <c r="CH12" t="inlineStr">
-        <is>
-          <t>85.27</t>
-        </is>
-      </c>
-      <c r="CI12" t="inlineStr">
-        <is>
-          <t>85.27</t>
-        </is>
-      </c>
-      <c r="CJ12" t="inlineStr">
-        <is>
-          <t>85.27</t>
-        </is>
-      </c>
-      <c r="CK12" t="inlineStr">
-        <is>
-          <t>82.84</t>
-        </is>
-      </c>
-      <c r="CL12" t="inlineStr">
-        <is>
-          <t>82.84</t>
-        </is>
-      </c>
-      <c r="CM12" t="inlineStr">
-        <is>
-          <t>74.98</t>
-        </is>
-      </c>
-      <c r="CN12" t="inlineStr">
-        <is>
-          <t>74.98</t>
-        </is>
-      </c>
-      <c r="CO12" t="inlineStr">
-        <is>
-          <t>74.98</t>
-        </is>
-      </c>
+      <c r="CP12" t="inlineStr"/>
+      <c r="CQ12" t="inlineStr"/>
+      <c r="CR12" t="inlineStr"/>
+      <c r="CS12" t="inlineStr"/>
+      <c r="CT12" t="inlineStr"/>
+      <c r="CU12" t="inlineStr"/>
+      <c r="CV12" t="inlineStr"/>
+      <c r="CW12" t="inlineStr"/>
+      <c r="CX12" t="inlineStr"/>
+      <c r="CY12" t="inlineStr"/>
+      <c r="CZ12" t="inlineStr"/>
+      <c r="DA12" t="inlineStr"/>
+      <c r="DB12" t="inlineStr"/>
+      <c r="DC12" t="inlineStr"/>
+      <c r="DD12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -5623,89 +5803,89 @@
       </c>
       <c r="AL13" t="inlineStr">
         <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
           <t>67.93</t>
         </is>
       </c>
-      <c r="AM13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>67.93</t>
         </is>
       </c>
-      <c r="AN13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
         <is>
           <t>67.93</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>67.93</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>70.16</t>
         </is>
       </c>
-      <c r="AQ13" t="inlineStr">
+      <c r="AR13" t="inlineStr">
         <is>
           <t>70.16</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AS13" t="inlineStr">
         <is>
           <t>67.93</t>
         </is>
       </c>
-      <c r="AS13" t="inlineStr">
+      <c r="AT13" t="inlineStr">
         <is>
           <t>67.93</t>
         </is>
       </c>
-      <c r="AT13" t="inlineStr">
+      <c r="AU13" t="inlineStr">
         <is>
           <t>70.16</t>
         </is>
       </c>
-      <c r="AU13" t="inlineStr">
+      <c r="AV13" t="inlineStr">
         <is>
           <t>70.16</t>
         </is>
       </c>
-      <c r="AV13" t="inlineStr">
+      <c r="AW13" t="inlineStr">
         <is>
           <t>80.07</t>
         </is>
       </c>
-      <c r="AW13" t="inlineStr">
+      <c r="AX13" t="inlineStr">
         <is>
           <t>70.16</t>
         </is>
       </c>
-      <c r="AX13" t="inlineStr">
+      <c r="AY13" t="inlineStr">
         <is>
           <t>70.16</t>
         </is>
       </c>
-      <c r="AY13" t="inlineStr">
+      <c r="AZ13" t="inlineStr">
         <is>
           <t>67.93</t>
         </is>
       </c>
-      <c r="AZ13" t="inlineStr">
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="BB13" t="inlineStr">
         <is>
           <t>67.93</t>
         </is>
       </c>
-      <c r="BA13" t="inlineStr">
-        <is>
-          <t>62.72</t>
-        </is>
-      </c>
-      <c r="BB13" t="inlineStr">
-        <is>
-          <t>62.72</t>
-        </is>
-      </c>
       <c r="BC13" t="inlineStr">
         <is>
           <t>75.84</t>
@@ -5763,144 +5943,159 @@
       </c>
       <c r="BN13" t="inlineStr">
         <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="BO13" t="inlineStr">
+        <is>
           <t>85.83</t>
         </is>
       </c>
-      <c r="BO13" t="inlineStr">
+      <c r="BP13" t="inlineStr">
+        <is>
+          <t>80.07</t>
+        </is>
+      </c>
+      <c r="BQ13" t="inlineStr">
+        <is>
+          <t>80.07</t>
+        </is>
+      </c>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>80.07</t>
+        </is>
+      </c>
+      <c r="BS13" t="inlineStr">
         <is>
           <t>85.83</t>
         </is>
       </c>
-      <c r="BP13" t="inlineStr">
+      <c r="BT13" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="BU13" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="BV13" t="inlineStr">
         <is>
           <t>88.42</t>
         </is>
       </c>
-      <c r="BQ13" t="inlineStr">
+      <c r="BW13" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="BX13" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="BY13" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="BZ13" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="CA13" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="CB13" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="CC13" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="CD13" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="CE13" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="CF13" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="CG13" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="CH13" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="CI13" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="CJ13" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="CK13" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="CL13" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="CM13" t="inlineStr">
         <is>
           <t>80.07</t>
         </is>
       </c>
-      <c r="BR13" t="inlineStr">
+      <c r="CN13" t="inlineStr">
         <is>
           <t>80.07</t>
         </is>
       </c>
-      <c r="BS13" t="inlineStr">
+      <c r="CO13" t="inlineStr">
         <is>
           <t>80.07</t>
         </is>
       </c>
-      <c r="BT13" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="BU13" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="BV13" t="inlineStr">
-        <is>
-          <t>88.42</t>
-        </is>
-      </c>
-      <c r="BW13" t="inlineStr">
-        <is>
-          <t>88.42</t>
-        </is>
-      </c>
-      <c r="BX13" t="inlineStr">
-        <is>
-          <t>88.42</t>
-        </is>
-      </c>
-      <c r="BY13" t="inlineStr">
-        <is>
-          <t>88.42</t>
-        </is>
-      </c>
-      <c r="BZ13" t="inlineStr">
-        <is>
-          <t>88.42</t>
-        </is>
-      </c>
-      <c r="CA13" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="CB13" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="CC13" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="CD13" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="CE13" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="CF13" t="inlineStr">
-        <is>
-          <t>85.83</t>
-        </is>
-      </c>
-      <c r="CG13" t="inlineStr">
-        <is>
-          <t>85.83</t>
-        </is>
-      </c>
-      <c r="CH13" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="CI13" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="CJ13" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="CK13" t="inlineStr">
-        <is>
-          <t>88.42</t>
-        </is>
-      </c>
-      <c r="CL13" t="inlineStr">
-        <is>
-          <t>88.42</t>
-        </is>
-      </c>
-      <c r="CM13" t="inlineStr">
-        <is>
-          <t>80.07</t>
-        </is>
-      </c>
-      <c r="CN13" t="inlineStr">
-        <is>
-          <t>80.07</t>
-        </is>
-      </c>
-      <c r="CO13" t="inlineStr">
-        <is>
-          <t>80.07</t>
-        </is>
-      </c>
+      <c r="CP13" t="inlineStr"/>
+      <c r="CQ13" t="inlineStr"/>
+      <c r="CR13" t="inlineStr"/>
+      <c r="CS13" t="inlineStr"/>
+      <c r="CT13" t="inlineStr"/>
+      <c r="CU13" t="inlineStr"/>
+      <c r="CV13" t="inlineStr"/>
+      <c r="CW13" t="inlineStr"/>
+      <c r="CX13" t="inlineStr"/>
+      <c r="CY13" t="inlineStr"/>
+      <c r="CZ13" t="inlineStr"/>
+      <c r="DA13" t="inlineStr"/>
+      <c r="DB13" t="inlineStr"/>
+      <c r="DC13" t="inlineStr"/>
+      <c r="DD13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -6086,89 +6281,89 @@
       </c>
       <c r="AL14" t="inlineStr">
         <is>
+          <t>73.92</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
           <t>79.71</t>
         </is>
       </c>
-      <c r="AM14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>79.71</t>
         </is>
       </c>
-      <c r="AN14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>79.71</t>
         </is>
       </c>
-      <c r="AO14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>79.71</t>
         </is>
       </c>
-      <c r="AP14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
         <is>
           <t>81.77</t>
         </is>
       </c>
-      <c r="AQ14" t="inlineStr">
+      <c r="AR14" t="inlineStr">
         <is>
           <t>81.77</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AS14" t="inlineStr">
         <is>
           <t>79.71</t>
         </is>
       </c>
-      <c r="AS14" t="inlineStr">
+      <c r="AT14" t="inlineStr">
         <is>
           <t>79.71</t>
         </is>
       </c>
-      <c r="AT14" t="inlineStr">
+      <c r="AU14" t="inlineStr">
         <is>
           <t>81.77</t>
         </is>
       </c>
-      <c r="AU14" t="inlineStr">
+      <c r="AV14" t="inlineStr">
         <is>
           <t>81.77</t>
         </is>
       </c>
-      <c r="AV14" t="inlineStr">
+      <c r="AW14" t="inlineStr">
         <is>
           <t>92.27</t>
         </is>
       </c>
-      <c r="AW14" t="inlineStr">
+      <c r="AX14" t="inlineStr">
         <is>
           <t>81.77</t>
         </is>
       </c>
-      <c r="AX14" t="inlineStr">
+      <c r="AY14" t="inlineStr">
         <is>
           <t>81.77</t>
         </is>
       </c>
-      <c r="AY14" t="inlineStr">
+      <c r="AZ14" t="inlineStr">
         <is>
           <t>79.71</t>
         </is>
       </c>
-      <c r="AZ14" t="inlineStr">
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>73.92</t>
+        </is>
+      </c>
+      <c r="BB14" t="inlineStr">
         <is>
           <t>79.71</t>
         </is>
       </c>
-      <c r="BA14" t="inlineStr">
-        <is>
-          <t>73.92</t>
-        </is>
-      </c>
-      <c r="BB14" t="inlineStr">
-        <is>
-          <t>73.92</t>
-        </is>
-      </c>
       <c r="BC14" t="inlineStr">
         <is>
           <t>87.82</t>
@@ -6226,144 +6421,159 @@
       </c>
       <c r="BN14" t="inlineStr">
         <is>
+          <t>101.42</t>
+        </is>
+      </c>
+      <c r="BO14" t="inlineStr">
+        <is>
           <t>98.68</t>
         </is>
       </c>
-      <c r="BO14" t="inlineStr">
+      <c r="BP14" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="BQ14" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="BS14" t="inlineStr">
         <is>
           <t>98.68</t>
         </is>
       </c>
-      <c r="BP14" t="inlineStr">
+      <c r="BT14" t="inlineStr">
+        <is>
+          <t>104.15</t>
+        </is>
+      </c>
+      <c r="BU14" t="inlineStr">
+        <is>
+          <t>104.15</t>
+        </is>
+      </c>
+      <c r="BV14" t="inlineStr">
         <is>
           <t>101.42</t>
         </is>
       </c>
-      <c r="BQ14" t="inlineStr">
+      <c r="BW14" t="inlineStr">
+        <is>
+          <t>101.42</t>
+        </is>
+      </c>
+      <c r="BX14" t="inlineStr">
+        <is>
+          <t>104.15</t>
+        </is>
+      </c>
+      <c r="BY14" t="inlineStr">
+        <is>
+          <t>104.15</t>
+        </is>
+      </c>
+      <c r="BZ14" t="inlineStr">
+        <is>
+          <t>104.15</t>
+        </is>
+      </c>
+      <c r="CA14" t="inlineStr">
+        <is>
+          <t>101.42</t>
+        </is>
+      </c>
+      <c r="CB14" t="inlineStr">
+        <is>
+          <t>101.42</t>
+        </is>
+      </c>
+      <c r="CC14" t="inlineStr">
+        <is>
+          <t>104.15</t>
+        </is>
+      </c>
+      <c r="CD14" t="inlineStr">
+        <is>
+          <t>104.15</t>
+        </is>
+      </c>
+      <c r="CE14" t="inlineStr">
+        <is>
+          <t>101.42</t>
+        </is>
+      </c>
+      <c r="CF14" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="CG14" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="CH14" t="inlineStr">
+        <is>
+          <t>104.15</t>
+        </is>
+      </c>
+      <c r="CI14" t="inlineStr">
+        <is>
+          <t>104.15</t>
+        </is>
+      </c>
+      <c r="CJ14" t="inlineStr">
+        <is>
+          <t>104.15</t>
+        </is>
+      </c>
+      <c r="CK14" t="inlineStr">
+        <is>
+          <t>101.42</t>
+        </is>
+      </c>
+      <c r="CL14" t="inlineStr">
+        <is>
+          <t>101.42</t>
+        </is>
+      </c>
+      <c r="CM14" t="inlineStr">
         <is>
           <t>92.27</t>
         </is>
       </c>
-      <c r="BR14" t="inlineStr">
+      <c r="CN14" t="inlineStr">
         <is>
           <t>92.27</t>
         </is>
       </c>
-      <c r="BS14" t="inlineStr">
+      <c r="CO14" t="inlineStr">
         <is>
           <t>92.27</t>
         </is>
       </c>
-      <c r="BT14" t="inlineStr">
-        <is>
-          <t>104.15</t>
-        </is>
-      </c>
-      <c r="BU14" t="inlineStr">
-        <is>
-          <t>104.15</t>
-        </is>
-      </c>
-      <c r="BV14" t="inlineStr">
-        <is>
-          <t>101.42</t>
-        </is>
-      </c>
-      <c r="BW14" t="inlineStr">
-        <is>
-          <t>101.42</t>
-        </is>
-      </c>
-      <c r="BX14" t="inlineStr">
-        <is>
-          <t>101.42</t>
-        </is>
-      </c>
-      <c r="BY14" t="inlineStr">
-        <is>
-          <t>101.42</t>
-        </is>
-      </c>
-      <c r="BZ14" t="inlineStr">
-        <is>
-          <t>101.42</t>
-        </is>
-      </c>
-      <c r="CA14" t="inlineStr">
-        <is>
-          <t>104.15</t>
-        </is>
-      </c>
-      <c r="CB14" t="inlineStr">
-        <is>
-          <t>104.15</t>
-        </is>
-      </c>
-      <c r="CC14" t="inlineStr">
-        <is>
-          <t>104.15</t>
-        </is>
-      </c>
-      <c r="CD14" t="inlineStr">
-        <is>
-          <t>104.15</t>
-        </is>
-      </c>
-      <c r="CE14" t="inlineStr">
-        <is>
-          <t>104.15</t>
-        </is>
-      </c>
-      <c r="CF14" t="inlineStr">
-        <is>
-          <t>98.68</t>
-        </is>
-      </c>
-      <c r="CG14" t="inlineStr">
-        <is>
-          <t>98.68</t>
-        </is>
-      </c>
-      <c r="CH14" t="inlineStr">
-        <is>
-          <t>104.15</t>
-        </is>
-      </c>
-      <c r="CI14" t="inlineStr">
-        <is>
-          <t>104.15</t>
-        </is>
-      </c>
-      <c r="CJ14" t="inlineStr">
-        <is>
-          <t>104.15</t>
-        </is>
-      </c>
-      <c r="CK14" t="inlineStr">
-        <is>
-          <t>101.42</t>
-        </is>
-      </c>
-      <c r="CL14" t="inlineStr">
-        <is>
-          <t>101.42</t>
-        </is>
-      </c>
-      <c r="CM14" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="CN14" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="CO14" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
+      <c r="CP14" t="inlineStr"/>
+      <c r="CQ14" t="inlineStr"/>
+      <c r="CR14" t="inlineStr"/>
+      <c r="CS14" t="inlineStr"/>
+      <c r="CT14" t="inlineStr"/>
+      <c r="CU14" t="inlineStr"/>
+      <c r="CV14" t="inlineStr"/>
+      <c r="CW14" t="inlineStr"/>
+      <c r="CX14" t="inlineStr"/>
+      <c r="CY14" t="inlineStr"/>
+      <c r="CZ14" t="inlineStr"/>
+      <c r="DA14" t="inlineStr"/>
+      <c r="DB14" t="inlineStr"/>
+      <c r="DC14" t="inlineStr"/>
+      <c r="DD14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -6549,89 +6759,89 @@
       </c>
       <c r="AL15" t="inlineStr">
         <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
           <t>84.34</t>
         </is>
       </c>
-      <c r="AM15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>84.34</t>
         </is>
       </c>
-      <c r="AN15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>84.34</t>
         </is>
       </c>
-      <c r="AO15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>84.34</t>
         </is>
       </c>
-      <c r="AP15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
         <is>
           <t>86.87</t>
         </is>
       </c>
-      <c r="AQ15" t="inlineStr">
+      <c r="AR15" t="inlineStr">
         <is>
           <t>86.87</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AS15" t="inlineStr">
         <is>
           <t>84.34</t>
         </is>
       </c>
-      <c r="AS15" t="inlineStr">
+      <c r="AT15" t="inlineStr">
         <is>
           <t>84.34</t>
         </is>
       </c>
-      <c r="AT15" t="inlineStr">
+      <c r="AU15" t="inlineStr">
         <is>
           <t>86.87</t>
         </is>
       </c>
-      <c r="AU15" t="inlineStr">
+      <c r="AV15" t="inlineStr">
         <is>
           <t>86.87</t>
         </is>
       </c>
-      <c r="AV15" t="inlineStr">
+      <c r="AW15" t="inlineStr">
         <is>
           <t>98.70</t>
         </is>
       </c>
-      <c r="AW15" t="inlineStr">
+      <c r="AX15" t="inlineStr">
         <is>
           <t>86.87</t>
         </is>
       </c>
-      <c r="AX15" t="inlineStr">
+      <c r="AY15" t="inlineStr">
         <is>
           <t>86.87</t>
         </is>
       </c>
-      <c r="AY15" t="inlineStr">
+      <c r="AZ15" t="inlineStr">
         <is>
           <t>84.34</t>
         </is>
       </c>
-      <c r="AZ15" t="inlineStr">
+      <c r="BA15" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="BB15" t="inlineStr">
         <is>
           <t>84.34</t>
         </is>
       </c>
-      <c r="BA15" t="inlineStr">
-        <is>
-          <t>77.99</t>
-        </is>
-      </c>
-      <c r="BB15" t="inlineStr">
-        <is>
-          <t>77.99</t>
-        </is>
-      </c>
       <c r="BC15" t="inlineStr">
         <is>
           <t>93.68</t>
@@ -6689,144 +6899,159 @@
       </c>
       <c r="BN15" t="inlineStr">
         <is>
+          <t>108.82</t>
+        </is>
+      </c>
+      <c r="BO15" t="inlineStr">
+        <is>
           <t>105.73</t>
         </is>
       </c>
-      <c r="BO15" t="inlineStr">
+      <c r="BP15" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="BQ15" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="BS15" t="inlineStr">
         <is>
           <t>105.73</t>
         </is>
       </c>
-      <c r="BP15" t="inlineStr">
+      <c r="BT15" t="inlineStr">
+        <is>
+          <t>111.90</t>
+        </is>
+      </c>
+      <c r="BU15" t="inlineStr">
+        <is>
+          <t>111.90</t>
+        </is>
+      </c>
+      <c r="BV15" t="inlineStr">
         <is>
           <t>108.82</t>
         </is>
       </c>
-      <c r="BQ15" t="inlineStr">
+      <c r="BW15" t="inlineStr">
+        <is>
+          <t>108.82</t>
+        </is>
+      </c>
+      <c r="BX15" t="inlineStr">
+        <is>
+          <t>111.90</t>
+        </is>
+      </c>
+      <c r="BY15" t="inlineStr">
+        <is>
+          <t>111.90</t>
+        </is>
+      </c>
+      <c r="BZ15" t="inlineStr">
+        <is>
+          <t>111.90</t>
+        </is>
+      </c>
+      <c r="CA15" t="inlineStr">
+        <is>
+          <t>108.82</t>
+        </is>
+      </c>
+      <c r="CB15" t="inlineStr">
+        <is>
+          <t>108.82</t>
+        </is>
+      </c>
+      <c r="CC15" t="inlineStr">
+        <is>
+          <t>111.90</t>
+        </is>
+      </c>
+      <c r="CD15" t="inlineStr">
+        <is>
+          <t>111.90</t>
+        </is>
+      </c>
+      <c r="CE15" t="inlineStr">
+        <is>
+          <t>108.82</t>
+        </is>
+      </c>
+      <c r="CF15" t="inlineStr">
+        <is>
+          <t>105.73</t>
+        </is>
+      </c>
+      <c r="CG15" t="inlineStr">
+        <is>
+          <t>105.73</t>
+        </is>
+      </c>
+      <c r="CH15" t="inlineStr">
+        <is>
+          <t>111.90</t>
+        </is>
+      </c>
+      <c r="CI15" t="inlineStr">
+        <is>
+          <t>111.90</t>
+        </is>
+      </c>
+      <c r="CJ15" t="inlineStr">
+        <is>
+          <t>111.90</t>
+        </is>
+      </c>
+      <c r="CK15" t="inlineStr">
+        <is>
+          <t>108.82</t>
+        </is>
+      </c>
+      <c r="CL15" t="inlineStr">
+        <is>
+          <t>108.82</t>
+        </is>
+      </c>
+      <c r="CM15" t="inlineStr">
         <is>
           <t>98.70</t>
         </is>
       </c>
-      <c r="BR15" t="inlineStr">
+      <c r="CN15" t="inlineStr">
         <is>
           <t>98.70</t>
         </is>
       </c>
-      <c r="BS15" t="inlineStr">
+      <c r="CO15" t="inlineStr">
         <is>
           <t>98.70</t>
         </is>
       </c>
-      <c r="BT15" t="inlineStr">
-        <is>
-          <t>111.90</t>
-        </is>
-      </c>
-      <c r="BU15" t="inlineStr">
-        <is>
-          <t>111.90</t>
-        </is>
-      </c>
-      <c r="BV15" t="inlineStr">
-        <is>
-          <t>108.82</t>
-        </is>
-      </c>
-      <c r="BW15" t="inlineStr">
-        <is>
-          <t>108.82</t>
-        </is>
-      </c>
-      <c r="BX15" t="inlineStr">
-        <is>
-          <t>108.82</t>
-        </is>
-      </c>
-      <c r="BY15" t="inlineStr">
-        <is>
-          <t>108.82</t>
-        </is>
-      </c>
-      <c r="BZ15" t="inlineStr">
-        <is>
-          <t>108.82</t>
-        </is>
-      </c>
-      <c r="CA15" t="inlineStr">
-        <is>
-          <t>111.90</t>
-        </is>
-      </c>
-      <c r="CB15" t="inlineStr">
-        <is>
-          <t>111.90</t>
-        </is>
-      </c>
-      <c r="CC15" t="inlineStr">
-        <is>
-          <t>111.90</t>
-        </is>
-      </c>
-      <c r="CD15" t="inlineStr">
-        <is>
-          <t>111.90</t>
-        </is>
-      </c>
-      <c r="CE15" t="inlineStr">
-        <is>
-          <t>111.90</t>
-        </is>
-      </c>
-      <c r="CF15" t="inlineStr">
-        <is>
-          <t>105.73</t>
-        </is>
-      </c>
-      <c r="CG15" t="inlineStr">
-        <is>
-          <t>105.73</t>
-        </is>
-      </c>
-      <c r="CH15" t="inlineStr">
-        <is>
-          <t>111.90</t>
-        </is>
-      </c>
-      <c r="CI15" t="inlineStr">
-        <is>
-          <t>111.90</t>
-        </is>
-      </c>
-      <c r="CJ15" t="inlineStr">
-        <is>
-          <t>111.90</t>
-        </is>
-      </c>
-      <c r="CK15" t="inlineStr">
-        <is>
-          <t>108.82</t>
-        </is>
-      </c>
-      <c r="CL15" t="inlineStr">
-        <is>
-          <t>108.82</t>
-        </is>
-      </c>
-      <c r="CM15" t="inlineStr">
-        <is>
-          <t>98.70</t>
-        </is>
-      </c>
-      <c r="CN15" t="inlineStr">
-        <is>
-          <t>98.70</t>
-        </is>
-      </c>
-      <c r="CO15" t="inlineStr">
-        <is>
-          <t>98.70</t>
-        </is>
-      </c>
+      <c r="CP15" t="inlineStr"/>
+      <c r="CQ15" t="inlineStr"/>
+      <c r="CR15" t="inlineStr"/>
+      <c r="CS15" t="inlineStr"/>
+      <c r="CT15" t="inlineStr"/>
+      <c r="CU15" t="inlineStr"/>
+      <c r="CV15" t="inlineStr"/>
+      <c r="CW15" t="inlineStr"/>
+      <c r="CX15" t="inlineStr"/>
+      <c r="CY15" t="inlineStr"/>
+      <c r="CZ15" t="inlineStr"/>
+      <c r="DA15" t="inlineStr"/>
+      <c r="DB15" t="inlineStr"/>
+      <c r="DC15" t="inlineStr"/>
+      <c r="DD15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -7012,89 +7237,89 @@
       </c>
       <c r="AL16" t="inlineStr">
         <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
           <t>91.00</t>
         </is>
       </c>
-      <c r="AM16" t="inlineStr">
+      <c r="AN16" t="inlineStr">
         <is>
           <t>91.00</t>
         </is>
       </c>
-      <c r="AN16" t="inlineStr">
+      <c r="AO16" t="inlineStr">
         <is>
           <t>91.00</t>
         </is>
       </c>
-      <c r="AO16" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>91.00</t>
         </is>
       </c>
-      <c r="AP16" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
         <is>
           <t>94.15</t>
         </is>
       </c>
-      <c r="AQ16" t="inlineStr">
+      <c r="AR16" t="inlineStr">
         <is>
           <t>94.15</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AS16" t="inlineStr">
         <is>
           <t>91.00</t>
         </is>
       </c>
-      <c r="AS16" t="inlineStr">
+      <c r="AT16" t="inlineStr">
         <is>
           <t>91.00</t>
         </is>
       </c>
-      <c r="AT16" t="inlineStr">
+      <c r="AU16" t="inlineStr">
         <is>
           <t>94.15</t>
         </is>
       </c>
-      <c r="AU16" t="inlineStr">
+      <c r="AV16" t="inlineStr">
         <is>
           <t>94.15</t>
         </is>
       </c>
-      <c r="AV16" t="inlineStr">
+      <c r="AW16" t="inlineStr">
         <is>
           <t>107.77</t>
         </is>
       </c>
-      <c r="AW16" t="inlineStr">
+      <c r="AX16" t="inlineStr">
         <is>
           <t>94.15</t>
         </is>
       </c>
-      <c r="AX16" t="inlineStr">
+      <c r="AY16" t="inlineStr">
         <is>
           <t>94.15</t>
         </is>
       </c>
-      <c r="AY16" t="inlineStr">
+      <c r="AZ16" t="inlineStr">
         <is>
           <t>91.00</t>
         </is>
       </c>
-      <c r="AZ16" t="inlineStr">
+      <c r="BA16" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="BB16" t="inlineStr">
         <is>
           <t>91.00</t>
         </is>
       </c>
-      <c r="BA16" t="inlineStr">
-        <is>
-          <t>83.93</t>
-        </is>
-      </c>
-      <c r="BB16" t="inlineStr">
-        <is>
-          <t>83.93</t>
-        </is>
-      </c>
       <c r="BC16" t="inlineStr">
         <is>
           <t>101.99</t>
@@ -7152,144 +7377,159 @@
       </c>
       <c r="BN16" t="inlineStr">
         <is>
+          <t>119.17</t>
+        </is>
+      </c>
+      <c r="BO16" t="inlineStr">
+        <is>
           <t>115.64</t>
         </is>
       </c>
-      <c r="BO16" t="inlineStr">
+      <c r="BP16" t="inlineStr">
+        <is>
+          <t>107.77</t>
+        </is>
+      </c>
+      <c r="BQ16" t="inlineStr">
+        <is>
+          <t>107.77</t>
+        </is>
+      </c>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>107.77</t>
+        </is>
+      </c>
+      <c r="BS16" t="inlineStr">
         <is>
           <t>115.64</t>
         </is>
       </c>
-      <c r="BP16" t="inlineStr">
+      <c r="BT16" t="inlineStr">
+        <is>
+          <t>122.70</t>
+        </is>
+      </c>
+      <c r="BU16" t="inlineStr">
+        <is>
+          <t>122.70</t>
+        </is>
+      </c>
+      <c r="BV16" t="inlineStr">
         <is>
           <t>119.17</t>
         </is>
       </c>
-      <c r="BQ16" t="inlineStr">
+      <c r="BW16" t="inlineStr">
+        <is>
+          <t>119.17</t>
+        </is>
+      </c>
+      <c r="BX16" t="inlineStr">
+        <is>
+          <t>122.70</t>
+        </is>
+      </c>
+      <c r="BY16" t="inlineStr">
+        <is>
+          <t>122.70</t>
+        </is>
+      </c>
+      <c r="BZ16" t="inlineStr">
+        <is>
+          <t>122.70</t>
+        </is>
+      </c>
+      <c r="CA16" t="inlineStr">
+        <is>
+          <t>119.17</t>
+        </is>
+      </c>
+      <c r="CB16" t="inlineStr">
+        <is>
+          <t>119.17</t>
+        </is>
+      </c>
+      <c r="CC16" t="inlineStr">
+        <is>
+          <t>122.70</t>
+        </is>
+      </c>
+      <c r="CD16" t="inlineStr">
+        <is>
+          <t>122.70</t>
+        </is>
+      </c>
+      <c r="CE16" t="inlineStr">
+        <is>
+          <t>119.17</t>
+        </is>
+      </c>
+      <c r="CF16" t="inlineStr">
+        <is>
+          <t>115.64</t>
+        </is>
+      </c>
+      <c r="CG16" t="inlineStr">
+        <is>
+          <t>115.64</t>
+        </is>
+      </c>
+      <c r="CH16" t="inlineStr">
+        <is>
+          <t>122.70</t>
+        </is>
+      </c>
+      <c r="CI16" t="inlineStr">
+        <is>
+          <t>122.70</t>
+        </is>
+      </c>
+      <c r="CJ16" t="inlineStr">
+        <is>
+          <t>122.70</t>
+        </is>
+      </c>
+      <c r="CK16" t="inlineStr">
+        <is>
+          <t>119.17</t>
+        </is>
+      </c>
+      <c r="CL16" t="inlineStr">
+        <is>
+          <t>119.17</t>
+        </is>
+      </c>
+      <c r="CM16" t="inlineStr">
         <is>
           <t>107.77</t>
         </is>
       </c>
-      <c r="BR16" t="inlineStr">
+      <c r="CN16" t="inlineStr">
         <is>
           <t>107.77</t>
         </is>
       </c>
-      <c r="BS16" t="inlineStr">
+      <c r="CO16" t="inlineStr">
         <is>
           <t>107.77</t>
         </is>
       </c>
-      <c r="BT16" t="inlineStr">
-        <is>
-          <t>122.70</t>
-        </is>
-      </c>
-      <c r="BU16" t="inlineStr">
-        <is>
-          <t>122.70</t>
-        </is>
-      </c>
-      <c r="BV16" t="inlineStr">
-        <is>
-          <t>119.17</t>
-        </is>
-      </c>
-      <c r="BW16" t="inlineStr">
-        <is>
-          <t>119.17</t>
-        </is>
-      </c>
-      <c r="BX16" t="inlineStr">
-        <is>
-          <t>119.17</t>
-        </is>
-      </c>
-      <c r="BY16" t="inlineStr">
-        <is>
-          <t>119.17</t>
-        </is>
-      </c>
-      <c r="BZ16" t="inlineStr">
-        <is>
-          <t>119.17</t>
-        </is>
-      </c>
-      <c r="CA16" t="inlineStr">
-        <is>
-          <t>122.70</t>
-        </is>
-      </c>
-      <c r="CB16" t="inlineStr">
-        <is>
-          <t>122.70</t>
-        </is>
-      </c>
-      <c r="CC16" t="inlineStr">
-        <is>
-          <t>122.70</t>
-        </is>
-      </c>
-      <c r="CD16" t="inlineStr">
-        <is>
-          <t>122.70</t>
-        </is>
-      </c>
-      <c r="CE16" t="inlineStr">
-        <is>
-          <t>122.70</t>
-        </is>
-      </c>
-      <c r="CF16" t="inlineStr">
-        <is>
-          <t>115.64</t>
-        </is>
-      </c>
-      <c r="CG16" t="inlineStr">
-        <is>
-          <t>115.64</t>
-        </is>
-      </c>
-      <c r="CH16" t="inlineStr">
-        <is>
-          <t>122.70</t>
-        </is>
-      </c>
-      <c r="CI16" t="inlineStr">
-        <is>
-          <t>122.70</t>
-        </is>
-      </c>
-      <c r="CJ16" t="inlineStr">
-        <is>
-          <t>122.70</t>
-        </is>
-      </c>
-      <c r="CK16" t="inlineStr">
-        <is>
-          <t>119.17</t>
-        </is>
-      </c>
-      <c r="CL16" t="inlineStr">
-        <is>
-          <t>119.17</t>
-        </is>
-      </c>
-      <c r="CM16" t="inlineStr">
-        <is>
-          <t>107.77</t>
-        </is>
-      </c>
-      <c r="CN16" t="inlineStr">
-        <is>
-          <t>107.77</t>
-        </is>
-      </c>
-      <c r="CO16" t="inlineStr">
-        <is>
-          <t>107.77</t>
-        </is>
-      </c>
+      <c r="CP16" t="inlineStr"/>
+      <c r="CQ16" t="inlineStr"/>
+      <c r="CR16" t="inlineStr"/>
+      <c r="CS16" t="inlineStr"/>
+      <c r="CT16" t="inlineStr"/>
+      <c r="CU16" t="inlineStr"/>
+      <c r="CV16" t="inlineStr"/>
+      <c r="CW16" t="inlineStr"/>
+      <c r="CX16" t="inlineStr"/>
+      <c r="CY16" t="inlineStr"/>
+      <c r="CZ16" t="inlineStr"/>
+      <c r="DA16" t="inlineStr"/>
+      <c r="DB16" t="inlineStr"/>
+      <c r="DC16" t="inlineStr"/>
+      <c r="DD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -7475,89 +7715,89 @@
       </c>
       <c r="AL17" t="inlineStr">
         <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
           <t>106.29</t>
         </is>
       </c>
-      <c r="AM17" t="inlineStr">
+      <c r="AN17" t="inlineStr">
         <is>
           <t>106.29</t>
         </is>
       </c>
-      <c r="AN17" t="inlineStr">
+      <c r="AO17" t="inlineStr">
         <is>
           <t>106.29</t>
         </is>
       </c>
-      <c r="AO17" t="inlineStr">
+      <c r="AP17" t="inlineStr">
         <is>
           <t>106.29</t>
         </is>
       </c>
-      <c r="AP17" t="inlineStr">
+      <c r="AQ17" t="inlineStr">
         <is>
           <t>109.07</t>
         </is>
       </c>
-      <c r="AQ17" t="inlineStr">
+      <c r="AR17" t="inlineStr">
         <is>
           <t>109.07</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AS17" t="inlineStr">
         <is>
           <t>106.29</t>
         </is>
       </c>
-      <c r="AS17" t="inlineStr">
+      <c r="AT17" t="inlineStr">
         <is>
           <t>106.29</t>
         </is>
       </c>
-      <c r="AT17" t="inlineStr">
+      <c r="AU17" t="inlineStr">
         <is>
           <t>109.07</t>
         </is>
       </c>
-      <c r="AU17" t="inlineStr">
+      <c r="AV17" t="inlineStr">
         <is>
           <t>109.07</t>
         </is>
       </c>
-      <c r="AV17" t="inlineStr">
+      <c r="AW17" t="inlineStr">
         <is>
           <t>123.07</t>
         </is>
       </c>
-      <c r="AW17" t="inlineStr">
+      <c r="AX17" t="inlineStr">
         <is>
           <t>109.07</t>
         </is>
       </c>
-      <c r="AX17" t="inlineStr">
+      <c r="AY17" t="inlineStr">
         <is>
           <t>109.07</t>
         </is>
       </c>
-      <c r="AY17" t="inlineStr">
+      <c r="AZ17" t="inlineStr">
         <is>
           <t>106.29</t>
         </is>
       </c>
-      <c r="AZ17" t="inlineStr">
+      <c r="BA17" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="BB17" t="inlineStr">
         <is>
           <t>106.29</t>
         </is>
       </c>
-      <c r="BA17" t="inlineStr">
-        <is>
-          <t>98.55</t>
-        </is>
-      </c>
-      <c r="BB17" t="inlineStr">
-        <is>
-          <t>98.55</t>
-        </is>
-      </c>
       <c r="BC17" t="inlineStr">
         <is>
           <t>117.10</t>
@@ -7615,144 +7855,159 @@
       </c>
       <c r="BN17" t="inlineStr">
         <is>
+          <t>135.27</t>
+        </is>
+      </c>
+      <c r="BO17" t="inlineStr">
+        <is>
           <t>131.64</t>
         </is>
       </c>
-      <c r="BO17" t="inlineStr">
+      <c r="BP17" t="inlineStr">
+        <is>
+          <t>123.07</t>
+        </is>
+      </c>
+      <c r="BQ17" t="inlineStr">
+        <is>
+          <t>123.07</t>
+        </is>
+      </c>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>123.07</t>
+        </is>
+      </c>
+      <c r="BS17" t="inlineStr">
         <is>
           <t>131.64</t>
         </is>
       </c>
-      <c r="BP17" t="inlineStr">
+      <c r="BT17" t="inlineStr">
+        <is>
+          <t>138.90</t>
+        </is>
+      </c>
+      <c r="BU17" t="inlineStr">
+        <is>
+          <t>138.90</t>
+        </is>
+      </c>
+      <c r="BV17" t="inlineStr">
         <is>
           <t>135.27</t>
         </is>
       </c>
-      <c r="BQ17" t="inlineStr">
+      <c r="BW17" t="inlineStr">
+        <is>
+          <t>135.27</t>
+        </is>
+      </c>
+      <c r="BX17" t="inlineStr">
+        <is>
+          <t>138.90</t>
+        </is>
+      </c>
+      <c r="BY17" t="inlineStr">
+        <is>
+          <t>138.90</t>
+        </is>
+      </c>
+      <c r="BZ17" t="inlineStr">
+        <is>
+          <t>138.90</t>
+        </is>
+      </c>
+      <c r="CA17" t="inlineStr">
+        <is>
+          <t>135.27</t>
+        </is>
+      </c>
+      <c r="CB17" t="inlineStr">
+        <is>
+          <t>135.27</t>
+        </is>
+      </c>
+      <c r="CC17" t="inlineStr">
+        <is>
+          <t>138.90</t>
+        </is>
+      </c>
+      <c r="CD17" t="inlineStr">
+        <is>
+          <t>138.90</t>
+        </is>
+      </c>
+      <c r="CE17" t="inlineStr">
+        <is>
+          <t>135.27</t>
+        </is>
+      </c>
+      <c r="CF17" t="inlineStr">
+        <is>
+          <t>131.64</t>
+        </is>
+      </c>
+      <c r="CG17" t="inlineStr">
+        <is>
+          <t>131.64</t>
+        </is>
+      </c>
+      <c r="CH17" t="inlineStr">
+        <is>
+          <t>138.90</t>
+        </is>
+      </c>
+      <c r="CI17" t="inlineStr">
+        <is>
+          <t>138.90</t>
+        </is>
+      </c>
+      <c r="CJ17" t="inlineStr">
+        <is>
+          <t>138.90</t>
+        </is>
+      </c>
+      <c r="CK17" t="inlineStr">
+        <is>
+          <t>135.27</t>
+        </is>
+      </c>
+      <c r="CL17" t="inlineStr">
+        <is>
+          <t>135.27</t>
+        </is>
+      </c>
+      <c r="CM17" t="inlineStr">
         <is>
           <t>123.07</t>
         </is>
       </c>
-      <c r="BR17" t="inlineStr">
+      <c r="CN17" t="inlineStr">
         <is>
           <t>123.07</t>
         </is>
       </c>
-      <c r="BS17" t="inlineStr">
+      <c r="CO17" t="inlineStr">
         <is>
           <t>123.07</t>
         </is>
       </c>
-      <c r="BT17" t="inlineStr">
-        <is>
-          <t>138.90</t>
-        </is>
-      </c>
-      <c r="BU17" t="inlineStr">
-        <is>
-          <t>138.90</t>
-        </is>
-      </c>
-      <c r="BV17" t="inlineStr">
-        <is>
-          <t>135.27</t>
-        </is>
-      </c>
-      <c r="BW17" t="inlineStr">
-        <is>
-          <t>135.27</t>
-        </is>
-      </c>
-      <c r="BX17" t="inlineStr">
-        <is>
-          <t>135.27</t>
-        </is>
-      </c>
-      <c r="BY17" t="inlineStr">
-        <is>
-          <t>135.27</t>
-        </is>
-      </c>
-      <c r="BZ17" t="inlineStr">
-        <is>
-          <t>135.27</t>
-        </is>
-      </c>
-      <c r="CA17" t="inlineStr">
-        <is>
-          <t>138.90</t>
-        </is>
-      </c>
-      <c r="CB17" t="inlineStr">
-        <is>
-          <t>138.90</t>
-        </is>
-      </c>
-      <c r="CC17" t="inlineStr">
-        <is>
-          <t>138.90</t>
-        </is>
-      </c>
-      <c r="CD17" t="inlineStr">
-        <is>
-          <t>138.90</t>
-        </is>
-      </c>
-      <c r="CE17" t="inlineStr">
-        <is>
-          <t>138.90</t>
-        </is>
-      </c>
-      <c r="CF17" t="inlineStr">
-        <is>
-          <t>131.64</t>
-        </is>
-      </c>
-      <c r="CG17" t="inlineStr">
-        <is>
-          <t>131.64</t>
-        </is>
-      </c>
-      <c r="CH17" t="inlineStr">
-        <is>
-          <t>138.90</t>
-        </is>
-      </c>
-      <c r="CI17" t="inlineStr">
-        <is>
-          <t>138.90</t>
-        </is>
-      </c>
-      <c r="CJ17" t="inlineStr">
-        <is>
-          <t>138.90</t>
-        </is>
-      </c>
-      <c r="CK17" t="inlineStr">
-        <is>
-          <t>135.27</t>
-        </is>
-      </c>
-      <c r="CL17" t="inlineStr">
-        <is>
-          <t>135.27</t>
-        </is>
-      </c>
-      <c r="CM17" t="inlineStr">
-        <is>
-          <t>123.07</t>
-        </is>
-      </c>
-      <c r="CN17" t="inlineStr">
-        <is>
-          <t>123.07</t>
-        </is>
-      </c>
-      <c r="CO17" t="inlineStr">
-        <is>
-          <t>123.07</t>
-        </is>
-      </c>
+      <c r="CP17" t="inlineStr"/>
+      <c r="CQ17" t="inlineStr"/>
+      <c r="CR17" t="inlineStr"/>
+      <c r="CS17" t="inlineStr"/>
+      <c r="CT17" t="inlineStr"/>
+      <c r="CU17" t="inlineStr"/>
+      <c r="CV17" t="inlineStr"/>
+      <c r="CW17" t="inlineStr"/>
+      <c r="CX17" t="inlineStr"/>
+      <c r="CY17" t="inlineStr"/>
+      <c r="CZ17" t="inlineStr"/>
+      <c r="DA17" t="inlineStr"/>
+      <c r="DB17" t="inlineStr"/>
+      <c r="DC17" t="inlineStr"/>
+      <c r="DD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -7938,89 +8193,89 @@
       </c>
       <c r="AL18" t="inlineStr">
         <is>
+          <t>106.18</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
           <t>114.85</t>
         </is>
       </c>
-      <c r="AM18" t="inlineStr">
+      <c r="AN18" t="inlineStr">
         <is>
           <t>114.85</t>
         </is>
       </c>
-      <c r="AN18" t="inlineStr">
+      <c r="AO18" t="inlineStr">
         <is>
           <t>114.85</t>
         </is>
       </c>
-      <c r="AO18" t="inlineStr">
+      <c r="AP18" t="inlineStr">
         <is>
           <t>114.85</t>
         </is>
       </c>
-      <c r="AP18" t="inlineStr">
+      <c r="AQ18" t="inlineStr">
         <is>
           <t>118.33</t>
         </is>
       </c>
-      <c r="AQ18" t="inlineStr">
+      <c r="AR18" t="inlineStr">
         <is>
           <t>118.33</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AS18" t="inlineStr">
         <is>
           <t>114.85</t>
         </is>
       </c>
-      <c r="AS18" t="inlineStr">
+      <c r="AT18" t="inlineStr">
         <is>
           <t>114.85</t>
         </is>
       </c>
-      <c r="AT18" t="inlineStr">
+      <c r="AU18" t="inlineStr">
         <is>
           <t>118.33</t>
         </is>
       </c>
-      <c r="AU18" t="inlineStr">
+      <c r="AV18" t="inlineStr">
         <is>
           <t>118.33</t>
         </is>
       </c>
-      <c r="AV18" t="inlineStr">
+      <c r="AW18" t="inlineStr">
         <is>
           <t>134.55</t>
         </is>
       </c>
-      <c r="AW18" t="inlineStr">
+      <c r="AX18" t="inlineStr">
         <is>
           <t>118.33</t>
         </is>
       </c>
-      <c r="AX18" t="inlineStr">
+      <c r="AY18" t="inlineStr">
         <is>
           <t>118.33</t>
         </is>
       </c>
-      <c r="AY18" t="inlineStr">
+      <c r="AZ18" t="inlineStr">
         <is>
           <t>114.85</t>
         </is>
       </c>
-      <c r="AZ18" t="inlineStr">
+      <c r="BA18" t="inlineStr">
+        <is>
+          <t>106.18</t>
+        </is>
+      </c>
+      <c r="BB18" t="inlineStr">
         <is>
           <t>114.85</t>
         </is>
       </c>
-      <c r="BA18" t="inlineStr">
-        <is>
-          <t>106.18</t>
-        </is>
-      </c>
-      <c r="BB18" t="inlineStr">
-        <is>
-          <t>106.18</t>
-        </is>
-      </c>
       <c r="BC18" t="inlineStr">
         <is>
           <t>127.65</t>
@@ -8078,144 +8333,159 @@
       </c>
       <c r="BN18" t="inlineStr">
         <is>
+          <t>148.34</t>
+        </is>
+      </c>
+      <c r="BO18" t="inlineStr">
+        <is>
           <t>144.14</t>
         </is>
       </c>
-      <c r="BO18" t="inlineStr">
+      <c r="BP18" t="inlineStr">
+        <is>
+          <t>134.55</t>
+        </is>
+      </c>
+      <c r="BQ18" t="inlineStr">
+        <is>
+          <t>134.55</t>
+        </is>
+      </c>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>134.55</t>
+        </is>
+      </c>
+      <c r="BS18" t="inlineStr">
         <is>
           <t>144.14</t>
         </is>
       </c>
-      <c r="BP18" t="inlineStr">
+      <c r="BT18" t="inlineStr">
+        <is>
+          <t>152.55</t>
+        </is>
+      </c>
+      <c r="BU18" t="inlineStr">
+        <is>
+          <t>152.55</t>
+        </is>
+      </c>
+      <c r="BV18" t="inlineStr">
         <is>
           <t>148.34</t>
         </is>
       </c>
-      <c r="BQ18" t="inlineStr">
+      <c r="BW18" t="inlineStr">
+        <is>
+          <t>148.34</t>
+        </is>
+      </c>
+      <c r="BX18" t="inlineStr">
+        <is>
+          <t>152.55</t>
+        </is>
+      </c>
+      <c r="BY18" t="inlineStr">
+        <is>
+          <t>152.55</t>
+        </is>
+      </c>
+      <c r="BZ18" t="inlineStr">
+        <is>
+          <t>152.55</t>
+        </is>
+      </c>
+      <c r="CA18" t="inlineStr">
+        <is>
+          <t>148.34</t>
+        </is>
+      </c>
+      <c r="CB18" t="inlineStr">
+        <is>
+          <t>148.34</t>
+        </is>
+      </c>
+      <c r="CC18" t="inlineStr">
+        <is>
+          <t>152.55</t>
+        </is>
+      </c>
+      <c r="CD18" t="inlineStr">
+        <is>
+          <t>152.55</t>
+        </is>
+      </c>
+      <c r="CE18" t="inlineStr">
+        <is>
+          <t>148.34</t>
+        </is>
+      </c>
+      <c r="CF18" t="inlineStr">
+        <is>
+          <t>144.14</t>
+        </is>
+      </c>
+      <c r="CG18" t="inlineStr">
+        <is>
+          <t>144.14</t>
+        </is>
+      </c>
+      <c r="CH18" t="inlineStr">
+        <is>
+          <t>152.55</t>
+        </is>
+      </c>
+      <c r="CI18" t="inlineStr">
+        <is>
+          <t>152.55</t>
+        </is>
+      </c>
+      <c r="CJ18" t="inlineStr">
+        <is>
+          <t>152.55</t>
+        </is>
+      </c>
+      <c r="CK18" t="inlineStr">
+        <is>
+          <t>148.34</t>
+        </is>
+      </c>
+      <c r="CL18" t="inlineStr">
+        <is>
+          <t>148.34</t>
+        </is>
+      </c>
+      <c r="CM18" t="inlineStr">
         <is>
           <t>134.55</t>
         </is>
       </c>
-      <c r="BR18" t="inlineStr">
+      <c r="CN18" t="inlineStr">
         <is>
           <t>134.55</t>
         </is>
       </c>
-      <c r="BS18" t="inlineStr">
+      <c r="CO18" t="inlineStr">
         <is>
           <t>134.55</t>
         </is>
       </c>
-      <c r="BT18" t="inlineStr">
-        <is>
-          <t>152.55</t>
-        </is>
-      </c>
-      <c r="BU18" t="inlineStr">
-        <is>
-          <t>152.55</t>
-        </is>
-      </c>
-      <c r="BV18" t="inlineStr">
-        <is>
-          <t>148.34</t>
-        </is>
-      </c>
-      <c r="BW18" t="inlineStr">
-        <is>
-          <t>148.34</t>
-        </is>
-      </c>
-      <c r="BX18" t="inlineStr">
-        <is>
-          <t>148.34</t>
-        </is>
-      </c>
-      <c r="BY18" t="inlineStr">
-        <is>
-          <t>148.34</t>
-        </is>
-      </c>
-      <c r="BZ18" t="inlineStr">
-        <is>
-          <t>148.34</t>
-        </is>
-      </c>
-      <c r="CA18" t="inlineStr">
-        <is>
-          <t>152.55</t>
-        </is>
-      </c>
-      <c r="CB18" t="inlineStr">
-        <is>
-          <t>152.55</t>
-        </is>
-      </c>
-      <c r="CC18" t="inlineStr">
-        <is>
-          <t>152.55</t>
-        </is>
-      </c>
-      <c r="CD18" t="inlineStr">
-        <is>
-          <t>152.55</t>
-        </is>
-      </c>
-      <c r="CE18" t="inlineStr">
-        <is>
-          <t>152.55</t>
-        </is>
-      </c>
-      <c r="CF18" t="inlineStr">
-        <is>
-          <t>144.14</t>
-        </is>
-      </c>
-      <c r="CG18" t="inlineStr">
-        <is>
-          <t>144.14</t>
-        </is>
-      </c>
-      <c r="CH18" t="inlineStr">
-        <is>
-          <t>152.55</t>
-        </is>
-      </c>
-      <c r="CI18" t="inlineStr">
-        <is>
-          <t>152.55</t>
-        </is>
-      </c>
-      <c r="CJ18" t="inlineStr">
-        <is>
-          <t>152.55</t>
-        </is>
-      </c>
-      <c r="CK18" t="inlineStr">
-        <is>
-          <t>148.34</t>
-        </is>
-      </c>
-      <c r="CL18" t="inlineStr">
-        <is>
-          <t>148.34</t>
-        </is>
-      </c>
-      <c r="CM18" t="inlineStr">
-        <is>
-          <t>134.55</t>
-        </is>
-      </c>
-      <c r="CN18" t="inlineStr">
-        <is>
-          <t>134.55</t>
-        </is>
-      </c>
-      <c r="CO18" t="inlineStr">
-        <is>
-          <t>134.55</t>
-        </is>
-      </c>
+      <c r="CP18" t="inlineStr"/>
+      <c r="CQ18" t="inlineStr"/>
+      <c r="CR18" t="inlineStr"/>
+      <c r="CS18" t="inlineStr"/>
+      <c r="CT18" t="inlineStr"/>
+      <c r="CU18" t="inlineStr"/>
+      <c r="CV18" t="inlineStr"/>
+      <c r="CW18" t="inlineStr"/>
+      <c r="CX18" t="inlineStr"/>
+      <c r="CY18" t="inlineStr"/>
+      <c r="CZ18" t="inlineStr"/>
+      <c r="DA18" t="inlineStr"/>
+      <c r="DB18" t="inlineStr"/>
+      <c r="DC18" t="inlineStr"/>
+      <c r="DD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -8401,89 +8671,89 @@
       </c>
       <c r="AL19" t="inlineStr">
         <is>
+          <t>122.74</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
           <t>132.38</t>
         </is>
       </c>
-      <c r="AM19" t="inlineStr">
+      <c r="AN19" t="inlineStr">
         <is>
           <t>132.38</t>
         </is>
       </c>
-      <c r="AN19" t="inlineStr">
+      <c r="AO19" t="inlineStr">
         <is>
           <t>132.38</t>
         </is>
       </c>
-      <c r="AO19" t="inlineStr">
+      <c r="AP19" t="inlineStr">
         <is>
           <t>132.38</t>
         </is>
       </c>
-      <c r="AP19" t="inlineStr">
+      <c r="AQ19" t="inlineStr">
         <is>
           <t>135.83</t>
         </is>
       </c>
-      <c r="AQ19" t="inlineStr">
+      <c r="AR19" t="inlineStr">
         <is>
           <t>135.83</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AS19" t="inlineStr">
         <is>
           <t>132.38</t>
         </is>
       </c>
-      <c r="AS19" t="inlineStr">
+      <c r="AT19" t="inlineStr">
         <is>
           <t>132.38</t>
         </is>
       </c>
-      <c r="AT19" t="inlineStr">
+      <c r="AU19" t="inlineStr">
         <is>
           <t>135.83</t>
         </is>
       </c>
-      <c r="AU19" t="inlineStr">
+      <c r="AV19" t="inlineStr">
         <is>
           <t>135.83</t>
         </is>
       </c>
-      <c r="AV19" t="inlineStr">
+      <c r="AW19" t="inlineStr">
         <is>
           <t>153.32</t>
         </is>
       </c>
-      <c r="AW19" t="inlineStr">
+      <c r="AX19" t="inlineStr">
         <is>
           <t>135.83</t>
         </is>
       </c>
-      <c r="AX19" t="inlineStr">
+      <c r="AY19" t="inlineStr">
         <is>
           <t>135.83</t>
         </is>
       </c>
-      <c r="AY19" t="inlineStr">
+      <c r="AZ19" t="inlineStr">
         <is>
           <t>132.38</t>
         </is>
       </c>
-      <c r="AZ19" t="inlineStr">
+      <c r="BA19" t="inlineStr">
+        <is>
+          <t>122.74</t>
+        </is>
+      </c>
+      <c r="BB19" t="inlineStr">
         <is>
           <t>132.38</t>
         </is>
       </c>
-      <c r="BA19" t="inlineStr">
-        <is>
-          <t>122.74</t>
-        </is>
-      </c>
-      <c r="BB19" t="inlineStr">
-        <is>
-          <t>122.74</t>
-        </is>
-      </c>
       <c r="BC19" t="inlineStr">
         <is>
           <t>145.88</t>
@@ -8541,144 +8811,159 @@
       </c>
       <c r="BN19" t="inlineStr">
         <is>
+          <t>168.54</t>
+        </is>
+      </c>
+      <c r="BO19" t="inlineStr">
+        <is>
           <t>164.00</t>
         </is>
       </c>
-      <c r="BO19" t="inlineStr">
+      <c r="BP19" t="inlineStr">
+        <is>
+          <t>153.32</t>
+        </is>
+      </c>
+      <c r="BQ19" t="inlineStr">
+        <is>
+          <t>153.32</t>
+        </is>
+      </c>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>153.32</t>
+        </is>
+      </c>
+      <c r="BS19" t="inlineStr">
         <is>
           <t>164.00</t>
         </is>
       </c>
-      <c r="BP19" t="inlineStr">
+      <c r="BT19" t="inlineStr">
+        <is>
+          <t>173.09</t>
+        </is>
+      </c>
+      <c r="BU19" t="inlineStr">
+        <is>
+          <t>173.09</t>
+        </is>
+      </c>
+      <c r="BV19" t="inlineStr">
         <is>
           <t>168.54</t>
         </is>
       </c>
-      <c r="BQ19" t="inlineStr">
+      <c r="BW19" t="inlineStr">
+        <is>
+          <t>168.54</t>
+        </is>
+      </c>
+      <c r="BX19" t="inlineStr">
+        <is>
+          <t>173.09</t>
+        </is>
+      </c>
+      <c r="BY19" t="inlineStr">
+        <is>
+          <t>173.09</t>
+        </is>
+      </c>
+      <c r="BZ19" t="inlineStr">
+        <is>
+          <t>173.09</t>
+        </is>
+      </c>
+      <c r="CA19" t="inlineStr">
+        <is>
+          <t>168.54</t>
+        </is>
+      </c>
+      <c r="CB19" t="inlineStr">
+        <is>
+          <t>168.54</t>
+        </is>
+      </c>
+      <c r="CC19" t="inlineStr">
+        <is>
+          <t>173.09</t>
+        </is>
+      </c>
+      <c r="CD19" t="inlineStr">
+        <is>
+          <t>173.09</t>
+        </is>
+      </c>
+      <c r="CE19" t="inlineStr">
+        <is>
+          <t>168.54</t>
+        </is>
+      </c>
+      <c r="CF19" t="inlineStr">
+        <is>
+          <t>164.00</t>
+        </is>
+      </c>
+      <c r="CG19" t="inlineStr">
+        <is>
+          <t>164.00</t>
+        </is>
+      </c>
+      <c r="CH19" t="inlineStr">
+        <is>
+          <t>173.09</t>
+        </is>
+      </c>
+      <c r="CI19" t="inlineStr">
+        <is>
+          <t>173.09</t>
+        </is>
+      </c>
+      <c r="CJ19" t="inlineStr">
+        <is>
+          <t>173.09</t>
+        </is>
+      </c>
+      <c r="CK19" t="inlineStr">
+        <is>
+          <t>168.54</t>
+        </is>
+      </c>
+      <c r="CL19" t="inlineStr">
+        <is>
+          <t>168.54</t>
+        </is>
+      </c>
+      <c r="CM19" t="inlineStr">
         <is>
           <t>153.32</t>
         </is>
       </c>
-      <c r="BR19" t="inlineStr">
+      <c r="CN19" t="inlineStr">
         <is>
           <t>153.32</t>
         </is>
       </c>
-      <c r="BS19" t="inlineStr">
+      <c r="CO19" t="inlineStr">
         <is>
           <t>153.32</t>
         </is>
       </c>
-      <c r="BT19" t="inlineStr">
-        <is>
-          <t>173.09</t>
-        </is>
-      </c>
-      <c r="BU19" t="inlineStr">
-        <is>
-          <t>173.09</t>
-        </is>
-      </c>
-      <c r="BV19" t="inlineStr">
-        <is>
-          <t>168.54</t>
-        </is>
-      </c>
-      <c r="BW19" t="inlineStr">
-        <is>
-          <t>168.54</t>
-        </is>
-      </c>
-      <c r="BX19" t="inlineStr">
-        <is>
-          <t>168.54</t>
-        </is>
-      </c>
-      <c r="BY19" t="inlineStr">
-        <is>
-          <t>168.54</t>
-        </is>
-      </c>
-      <c r="BZ19" t="inlineStr">
-        <is>
-          <t>168.54</t>
-        </is>
-      </c>
-      <c r="CA19" t="inlineStr">
-        <is>
-          <t>173.09</t>
-        </is>
-      </c>
-      <c r="CB19" t="inlineStr">
-        <is>
-          <t>173.09</t>
-        </is>
-      </c>
-      <c r="CC19" t="inlineStr">
-        <is>
-          <t>173.09</t>
-        </is>
-      </c>
-      <c r="CD19" t="inlineStr">
-        <is>
-          <t>173.09</t>
-        </is>
-      </c>
-      <c r="CE19" t="inlineStr">
-        <is>
-          <t>173.09</t>
-        </is>
-      </c>
-      <c r="CF19" t="inlineStr">
-        <is>
-          <t>164.00</t>
-        </is>
-      </c>
-      <c r="CG19" t="inlineStr">
-        <is>
-          <t>164.00</t>
-        </is>
-      </c>
-      <c r="CH19" t="inlineStr">
-        <is>
-          <t>173.09</t>
-        </is>
-      </c>
-      <c r="CI19" t="inlineStr">
-        <is>
-          <t>173.09</t>
-        </is>
-      </c>
-      <c r="CJ19" t="inlineStr">
-        <is>
-          <t>173.09</t>
-        </is>
-      </c>
-      <c r="CK19" t="inlineStr">
-        <is>
-          <t>168.54</t>
-        </is>
-      </c>
-      <c r="CL19" t="inlineStr">
-        <is>
-          <t>168.54</t>
-        </is>
-      </c>
-      <c r="CM19" t="inlineStr">
-        <is>
-          <t>153.32</t>
-        </is>
-      </c>
-      <c r="CN19" t="inlineStr">
-        <is>
-          <t>153.32</t>
-        </is>
-      </c>
-      <c r="CO19" t="inlineStr">
-        <is>
-          <t>153.32</t>
-        </is>
-      </c>
+      <c r="CP19" t="inlineStr"/>
+      <c r="CQ19" t="inlineStr"/>
+      <c r="CR19" t="inlineStr"/>
+      <c r="CS19" t="inlineStr"/>
+      <c r="CT19" t="inlineStr"/>
+      <c r="CU19" t="inlineStr"/>
+      <c r="CV19" t="inlineStr"/>
+      <c r="CW19" t="inlineStr"/>
+      <c r="CX19" t="inlineStr"/>
+      <c r="CY19" t="inlineStr"/>
+      <c r="CZ19" t="inlineStr"/>
+      <c r="DA19" t="inlineStr"/>
+      <c r="DB19" t="inlineStr"/>
+      <c r="DC19" t="inlineStr"/>
+      <c r="DD19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -8864,89 +9149,89 @@
       </c>
       <c r="AL20" t="inlineStr">
         <is>
+          <t>143.48</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
           <t>155.68</t>
         </is>
       </c>
-      <c r="AM20" t="inlineStr">
+      <c r="AN20" t="inlineStr">
         <is>
           <t>155.68</t>
         </is>
       </c>
-      <c r="AN20" t="inlineStr">
+      <c r="AO20" t="inlineStr">
         <is>
           <t>155.68</t>
         </is>
       </c>
-      <c r="AO20" t="inlineStr">
+      <c r="AP20" t="inlineStr">
         <is>
           <t>155.68</t>
         </is>
       </c>
-      <c r="AP20" t="inlineStr">
+      <c r="AQ20" t="inlineStr">
         <is>
           <t>161.20</t>
         </is>
       </c>
-      <c r="AQ20" t="inlineStr">
+      <c r="AR20" t="inlineStr">
         <is>
           <t>161.20</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AS20" t="inlineStr">
         <is>
           <t>155.68</t>
         </is>
       </c>
-      <c r="AS20" t="inlineStr">
+      <c r="AT20" t="inlineStr">
         <is>
           <t>155.68</t>
         </is>
       </c>
-      <c r="AT20" t="inlineStr">
+      <c r="AU20" t="inlineStr">
         <is>
           <t>161.20</t>
         </is>
       </c>
-      <c r="AU20" t="inlineStr">
+      <c r="AV20" t="inlineStr">
         <is>
           <t>161.20</t>
         </is>
       </c>
-      <c r="AV20" t="inlineStr">
+      <c r="AW20" t="inlineStr">
         <is>
           <t>184.83</t>
         </is>
       </c>
-      <c r="AW20" t="inlineStr">
+      <c r="AX20" t="inlineStr">
         <is>
           <t>161.20</t>
         </is>
       </c>
-      <c r="AX20" t="inlineStr">
+      <c r="AY20" t="inlineStr">
         <is>
           <t>161.20</t>
         </is>
       </c>
-      <c r="AY20" t="inlineStr">
+      <c r="AZ20" t="inlineStr">
         <is>
           <t>155.68</t>
         </is>
       </c>
-      <c r="AZ20" t="inlineStr">
+      <c r="BA20" t="inlineStr">
+        <is>
+          <t>143.48</t>
+        </is>
+      </c>
+      <c r="BB20" t="inlineStr">
         <is>
           <t>155.68</t>
         </is>
       </c>
-      <c r="BA20" t="inlineStr">
-        <is>
-          <t>143.48</t>
-        </is>
-      </c>
-      <c r="BB20" t="inlineStr">
-        <is>
-          <t>143.48</t>
-        </is>
-      </c>
       <c r="BC20" t="inlineStr">
         <is>
           <t>174.78</t>
@@ -9004,144 +9289,159 @@
       </c>
       <c r="BN20" t="inlineStr">
         <is>
+          <t>202.83</t>
+        </is>
+      </c>
+      <c r="BO20" t="inlineStr">
+        <is>
           <t>198.38</t>
         </is>
       </c>
-      <c r="BO20" t="inlineStr">
+      <c r="BP20" t="inlineStr">
+        <is>
+          <t>184.83</t>
+        </is>
+      </c>
+      <c r="BQ20" t="inlineStr">
+        <is>
+          <t>184.83</t>
+        </is>
+      </c>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>184.83</t>
+        </is>
+      </c>
+      <c r="BS20" t="inlineStr">
         <is>
           <t>198.38</t>
         </is>
       </c>
-      <c r="BP20" t="inlineStr">
+      <c r="BT20" t="inlineStr">
+        <is>
+          <t>215.94</t>
+        </is>
+      </c>
+      <c r="BU20" t="inlineStr">
+        <is>
+          <t>215.94</t>
+        </is>
+      </c>
+      <c r="BV20" t="inlineStr">
         <is>
           <t>202.83</t>
         </is>
       </c>
-      <c r="BQ20" t="inlineStr">
+      <c r="BW20" t="inlineStr">
+        <is>
+          <t>202.83</t>
+        </is>
+      </c>
+      <c r="BX20" t="inlineStr">
+        <is>
+          <t>215.94</t>
+        </is>
+      </c>
+      <c r="BY20" t="inlineStr">
+        <is>
+          <t>215.94</t>
+        </is>
+      </c>
+      <c r="BZ20" t="inlineStr">
+        <is>
+          <t>215.94</t>
+        </is>
+      </c>
+      <c r="CA20" t="inlineStr">
+        <is>
+          <t>202.83</t>
+        </is>
+      </c>
+      <c r="CB20" t="inlineStr">
+        <is>
+          <t>202.83</t>
+        </is>
+      </c>
+      <c r="CC20" t="inlineStr">
+        <is>
+          <t>215.94</t>
+        </is>
+      </c>
+      <c r="CD20" t="inlineStr">
+        <is>
+          <t>215.94</t>
+        </is>
+      </c>
+      <c r="CE20" t="inlineStr">
+        <is>
+          <t>202.83</t>
+        </is>
+      </c>
+      <c r="CF20" t="inlineStr">
+        <is>
+          <t>198.38</t>
+        </is>
+      </c>
+      <c r="CG20" t="inlineStr">
+        <is>
+          <t>198.38</t>
+        </is>
+      </c>
+      <c r="CH20" t="inlineStr">
+        <is>
+          <t>215.94</t>
+        </is>
+      </c>
+      <c r="CI20" t="inlineStr">
+        <is>
+          <t>215.94</t>
+        </is>
+      </c>
+      <c r="CJ20" t="inlineStr">
+        <is>
+          <t>215.94</t>
+        </is>
+      </c>
+      <c r="CK20" t="inlineStr">
+        <is>
+          <t>202.83</t>
+        </is>
+      </c>
+      <c r="CL20" t="inlineStr">
+        <is>
+          <t>202.83</t>
+        </is>
+      </c>
+      <c r="CM20" t="inlineStr">
         <is>
           <t>184.83</t>
         </is>
       </c>
-      <c r="BR20" t="inlineStr">
+      <c r="CN20" t="inlineStr">
         <is>
           <t>184.83</t>
         </is>
       </c>
-      <c r="BS20" t="inlineStr">
+      <c r="CO20" t="inlineStr">
         <is>
           <t>184.83</t>
         </is>
       </c>
-      <c r="BT20" t="inlineStr">
-        <is>
-          <t>215.94</t>
-        </is>
-      </c>
-      <c r="BU20" t="inlineStr">
-        <is>
-          <t>215.94</t>
-        </is>
-      </c>
-      <c r="BV20" t="inlineStr">
-        <is>
-          <t>202.83</t>
-        </is>
-      </c>
-      <c r="BW20" t="inlineStr">
-        <is>
-          <t>202.83</t>
-        </is>
-      </c>
-      <c r="BX20" t="inlineStr">
-        <is>
-          <t>202.83</t>
-        </is>
-      </c>
-      <c r="BY20" t="inlineStr">
-        <is>
-          <t>202.83</t>
-        </is>
-      </c>
-      <c r="BZ20" t="inlineStr">
-        <is>
-          <t>202.83</t>
-        </is>
-      </c>
-      <c r="CA20" t="inlineStr">
-        <is>
-          <t>215.94</t>
-        </is>
-      </c>
-      <c r="CB20" t="inlineStr">
-        <is>
-          <t>215.94</t>
-        </is>
-      </c>
-      <c r="CC20" t="inlineStr">
-        <is>
-          <t>215.94</t>
-        </is>
-      </c>
-      <c r="CD20" t="inlineStr">
-        <is>
-          <t>215.94</t>
-        </is>
-      </c>
-      <c r="CE20" t="inlineStr">
-        <is>
-          <t>215.94</t>
-        </is>
-      </c>
-      <c r="CF20" t="inlineStr">
-        <is>
-          <t>198.38</t>
-        </is>
-      </c>
-      <c r="CG20" t="inlineStr">
-        <is>
-          <t>198.38</t>
-        </is>
-      </c>
-      <c r="CH20" t="inlineStr">
-        <is>
-          <t>215.94</t>
-        </is>
-      </c>
-      <c r="CI20" t="inlineStr">
-        <is>
-          <t>215.94</t>
-        </is>
-      </c>
-      <c r="CJ20" t="inlineStr">
-        <is>
-          <t>215.94</t>
-        </is>
-      </c>
-      <c r="CK20" t="inlineStr">
-        <is>
-          <t>202.83</t>
-        </is>
-      </c>
-      <c r="CL20" t="inlineStr">
-        <is>
-          <t>202.83</t>
-        </is>
-      </c>
-      <c r="CM20" t="inlineStr">
-        <is>
-          <t>184.83</t>
-        </is>
-      </c>
-      <c r="CN20" t="inlineStr">
-        <is>
-          <t>184.83</t>
-        </is>
-      </c>
-      <c r="CO20" t="inlineStr">
-        <is>
-          <t>184.83</t>
-        </is>
-      </c>
+      <c r="CP20" t="inlineStr"/>
+      <c r="CQ20" t="inlineStr"/>
+      <c r="CR20" t="inlineStr"/>
+      <c r="CS20" t="inlineStr"/>
+      <c r="CT20" t="inlineStr"/>
+      <c r="CU20" t="inlineStr"/>
+      <c r="CV20" t="inlineStr"/>
+      <c r="CW20" t="inlineStr"/>
+      <c r="CX20" t="inlineStr"/>
+      <c r="CY20" t="inlineStr"/>
+      <c r="CZ20" t="inlineStr"/>
+      <c r="DA20" t="inlineStr"/>
+      <c r="DB20" t="inlineStr"/>
+      <c r="DC20" t="inlineStr"/>
+      <c r="DD20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -9327,89 +9627,89 @@
       </c>
       <c r="AL21" t="inlineStr">
         <is>
+          <t>175.01</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
           <t>189.79</t>
         </is>
       </c>
-      <c r="AM21" t="inlineStr">
+      <c r="AN21" t="inlineStr">
         <is>
           <t>189.79</t>
         </is>
       </c>
-      <c r="AN21" t="inlineStr">
+      <c r="AO21" t="inlineStr">
         <is>
           <t>189.79</t>
         </is>
       </c>
-      <c r="AO21" t="inlineStr">
+      <c r="AP21" t="inlineStr">
         <is>
           <t>189.79</t>
         </is>
       </c>
-      <c r="AP21" t="inlineStr">
+      <c r="AQ21" t="inlineStr">
         <is>
           <t>196.36</t>
         </is>
       </c>
-      <c r="AQ21" t="inlineStr">
+      <c r="AR21" t="inlineStr">
         <is>
           <t>196.36</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AS21" t="inlineStr">
         <is>
           <t>189.79</t>
         </is>
       </c>
-      <c r="AS21" t="inlineStr">
+      <c r="AT21" t="inlineStr">
         <is>
           <t>189.79</t>
         </is>
       </c>
-      <c r="AT21" t="inlineStr">
+      <c r="AU21" t="inlineStr">
         <is>
           <t>196.36</t>
         </is>
       </c>
-      <c r="AU21" t="inlineStr">
+      <c r="AV21" t="inlineStr">
         <is>
           <t>196.36</t>
         </is>
       </c>
-      <c r="AV21" t="inlineStr">
+      <c r="AW21" t="inlineStr">
         <is>
           <t>224.83</t>
         </is>
       </c>
-      <c r="AW21" t="inlineStr">
+      <c r="AX21" t="inlineStr">
         <is>
           <t>196.36</t>
         </is>
       </c>
-      <c r="AX21" t="inlineStr">
+      <c r="AY21" t="inlineStr">
         <is>
           <t>196.36</t>
         </is>
       </c>
-      <c r="AY21" t="inlineStr">
+      <c r="AZ21" t="inlineStr">
         <is>
           <t>189.79</t>
         </is>
       </c>
-      <c r="AZ21" t="inlineStr">
+      <c r="BA21" t="inlineStr">
+        <is>
+          <t>175.01</t>
+        </is>
+      </c>
+      <c r="BB21" t="inlineStr">
         <is>
           <t>189.79</t>
         </is>
       </c>
-      <c r="BA21" t="inlineStr">
-        <is>
-          <t>175.01</t>
-        </is>
-      </c>
-      <c r="BB21" t="inlineStr">
-        <is>
-          <t>175.01</t>
-        </is>
-      </c>
       <c r="BC21" t="inlineStr">
         <is>
           <t>212.72</t>
@@ -9467,144 +9767,159 @@
       </c>
       <c r="BN21" t="inlineStr">
         <is>
+          <t>248.63</t>
+        </is>
+      </c>
+      <c r="BO21" t="inlineStr">
+        <is>
           <t>241.23</t>
         </is>
       </c>
-      <c r="BO21" t="inlineStr">
+      <c r="BP21" t="inlineStr">
+        <is>
+          <t>224.83</t>
+        </is>
+      </c>
+      <c r="BQ21" t="inlineStr">
+        <is>
+          <t>224.83</t>
+        </is>
+      </c>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>224.83</t>
+        </is>
+      </c>
+      <c r="BS21" t="inlineStr">
         <is>
           <t>241.23</t>
         </is>
       </c>
-      <c r="BP21" t="inlineStr">
+      <c r="BT21" t="inlineStr">
+        <is>
+          <t>256.02</t>
+        </is>
+      </c>
+      <c r="BU21" t="inlineStr">
+        <is>
+          <t>256.02</t>
+        </is>
+      </c>
+      <c r="BV21" t="inlineStr">
         <is>
           <t>248.63</t>
         </is>
       </c>
-      <c r="BQ21" t="inlineStr">
+      <c r="BW21" t="inlineStr">
+        <is>
+          <t>248.63</t>
+        </is>
+      </c>
+      <c r="BX21" t="inlineStr">
+        <is>
+          <t>256.02</t>
+        </is>
+      </c>
+      <c r="BY21" t="inlineStr">
+        <is>
+          <t>256.02</t>
+        </is>
+      </c>
+      <c r="BZ21" t="inlineStr">
+        <is>
+          <t>256.02</t>
+        </is>
+      </c>
+      <c r="CA21" t="inlineStr">
+        <is>
+          <t>248.63</t>
+        </is>
+      </c>
+      <c r="CB21" t="inlineStr">
+        <is>
+          <t>248.63</t>
+        </is>
+      </c>
+      <c r="CC21" t="inlineStr">
+        <is>
+          <t>256.02</t>
+        </is>
+      </c>
+      <c r="CD21" t="inlineStr">
+        <is>
+          <t>256.02</t>
+        </is>
+      </c>
+      <c r="CE21" t="inlineStr">
+        <is>
+          <t>248.63</t>
+        </is>
+      </c>
+      <c r="CF21" t="inlineStr">
+        <is>
+          <t>241.23</t>
+        </is>
+      </c>
+      <c r="CG21" t="inlineStr">
+        <is>
+          <t>241.23</t>
+        </is>
+      </c>
+      <c r="CH21" t="inlineStr">
+        <is>
+          <t>256.02</t>
+        </is>
+      </c>
+      <c r="CI21" t="inlineStr">
+        <is>
+          <t>256.02</t>
+        </is>
+      </c>
+      <c r="CJ21" t="inlineStr">
+        <is>
+          <t>256.02</t>
+        </is>
+      </c>
+      <c r="CK21" t="inlineStr">
+        <is>
+          <t>248.63</t>
+        </is>
+      </c>
+      <c r="CL21" t="inlineStr">
+        <is>
+          <t>248.63</t>
+        </is>
+      </c>
+      <c r="CM21" t="inlineStr">
         <is>
           <t>224.83</t>
         </is>
       </c>
-      <c r="BR21" t="inlineStr">
+      <c r="CN21" t="inlineStr">
         <is>
           <t>224.83</t>
         </is>
       </c>
-      <c r="BS21" t="inlineStr">
+      <c r="CO21" t="inlineStr">
         <is>
           <t>224.83</t>
         </is>
       </c>
-      <c r="BT21" t="inlineStr">
-        <is>
-          <t>256.02</t>
-        </is>
-      </c>
-      <c r="BU21" t="inlineStr">
-        <is>
-          <t>256.02</t>
-        </is>
-      </c>
-      <c r="BV21" t="inlineStr">
-        <is>
-          <t>248.63</t>
-        </is>
-      </c>
-      <c r="BW21" t="inlineStr">
-        <is>
-          <t>248.63</t>
-        </is>
-      </c>
-      <c r="BX21" t="inlineStr">
-        <is>
-          <t>248.63</t>
-        </is>
-      </c>
-      <c r="BY21" t="inlineStr">
-        <is>
-          <t>248.63</t>
-        </is>
-      </c>
-      <c r="BZ21" t="inlineStr">
-        <is>
-          <t>248.63</t>
-        </is>
-      </c>
-      <c r="CA21" t="inlineStr">
-        <is>
-          <t>256.02</t>
-        </is>
-      </c>
-      <c r="CB21" t="inlineStr">
-        <is>
-          <t>256.02</t>
-        </is>
-      </c>
-      <c r="CC21" t="inlineStr">
-        <is>
-          <t>256.02</t>
-        </is>
-      </c>
-      <c r="CD21" t="inlineStr">
-        <is>
-          <t>256.02</t>
-        </is>
-      </c>
-      <c r="CE21" t="inlineStr">
-        <is>
-          <t>256.02</t>
-        </is>
-      </c>
-      <c r="CF21" t="inlineStr">
-        <is>
-          <t>241.23</t>
-        </is>
-      </c>
-      <c r="CG21" t="inlineStr">
-        <is>
-          <t>241.23</t>
-        </is>
-      </c>
-      <c r="CH21" t="inlineStr">
-        <is>
-          <t>256.02</t>
-        </is>
-      </c>
-      <c r="CI21" t="inlineStr">
-        <is>
-          <t>256.02</t>
-        </is>
-      </c>
-      <c r="CJ21" t="inlineStr">
-        <is>
-          <t>256.02</t>
-        </is>
-      </c>
-      <c r="CK21" t="inlineStr">
-        <is>
-          <t>248.63</t>
-        </is>
-      </c>
-      <c r="CL21" t="inlineStr">
-        <is>
-          <t>248.63</t>
-        </is>
-      </c>
-      <c r="CM21" t="inlineStr">
-        <is>
-          <t>224.83</t>
-        </is>
-      </c>
-      <c r="CN21" t="inlineStr">
-        <is>
-          <t>224.83</t>
-        </is>
-      </c>
-      <c r="CO21" t="inlineStr">
-        <is>
-          <t>224.83</t>
-        </is>
-      </c>
+      <c r="CP21" t="inlineStr"/>
+      <c r="CQ21" t="inlineStr"/>
+      <c r="CR21" t="inlineStr"/>
+      <c r="CS21" t="inlineStr"/>
+      <c r="CT21" t="inlineStr"/>
+      <c r="CU21" t="inlineStr"/>
+      <c r="CV21" t="inlineStr"/>
+      <c r="CW21" t="inlineStr"/>
+      <c r="CX21" t="inlineStr"/>
+      <c r="CY21" t="inlineStr"/>
+      <c r="CZ21" t="inlineStr"/>
+      <c r="DA21" t="inlineStr"/>
+      <c r="DB21" t="inlineStr"/>
+      <c r="DC21" t="inlineStr"/>
+      <c r="DD21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
@@ -9790,89 +10105,89 @@
       </c>
       <c r="AL22" t="inlineStr">
         <is>
+          <t>181.60</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
           <t>198.27</t>
         </is>
       </c>
-      <c r="AM22" t="inlineStr">
+      <c r="AN22" t="inlineStr">
         <is>
           <t>198.27</t>
         </is>
       </c>
-      <c r="AN22" t="inlineStr">
+      <c r="AO22" t="inlineStr">
         <is>
           <t>198.27</t>
         </is>
       </c>
-      <c r="AO22" t="inlineStr">
+      <c r="AP22" t="inlineStr">
         <is>
           <t>198.27</t>
         </is>
       </c>
-      <c r="AP22" t="inlineStr">
+      <c r="AQ22" t="inlineStr">
         <is>
           <t>207.26</t>
         </is>
       </c>
-      <c r="AQ22" t="inlineStr">
+      <c r="AR22" t="inlineStr">
         <is>
           <t>207.26</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
+      <c r="AS22" t="inlineStr">
         <is>
           <t>198.27</t>
         </is>
       </c>
-      <c r="AS22" t="inlineStr">
+      <c r="AT22" t="inlineStr">
         <is>
           <t>198.27</t>
         </is>
       </c>
-      <c r="AT22" t="inlineStr">
+      <c r="AU22" t="inlineStr">
         <is>
           <t>207.26</t>
         </is>
       </c>
-      <c r="AU22" t="inlineStr">
+      <c r="AV22" t="inlineStr">
         <is>
           <t>207.26</t>
         </is>
       </c>
-      <c r="AV22" t="inlineStr">
+      <c r="AW22" t="inlineStr">
         <is>
           <t>241.45</t>
         </is>
       </c>
-      <c r="AW22" t="inlineStr">
+      <c r="AX22" t="inlineStr">
         <is>
           <t>207.26</t>
         </is>
       </c>
-      <c r="AX22" t="inlineStr">
+      <c r="AY22" t="inlineStr">
         <is>
           <t>207.26</t>
         </is>
       </c>
-      <c r="AY22" t="inlineStr">
+      <c r="AZ22" t="inlineStr">
         <is>
           <t>198.27</t>
         </is>
       </c>
-      <c r="AZ22" t="inlineStr">
+      <c r="BA22" t="inlineStr">
+        <is>
+          <t>181.60</t>
+        </is>
+      </c>
+      <c r="BB22" t="inlineStr">
         <is>
           <t>198.27</t>
         </is>
       </c>
-      <c r="BA22" t="inlineStr">
-        <is>
-          <t>181.60</t>
-        </is>
-      </c>
-      <c r="BB22" t="inlineStr">
-        <is>
-          <t>181.60</t>
-        </is>
-      </c>
       <c r="BC22" t="inlineStr">
         <is>
           <t>226.91</t>
@@ -9930,144 +10245,159 @@
       </c>
       <c r="BN22" t="inlineStr">
         <is>
+          <t>268.90</t>
+        </is>
+      </c>
+      <c r="BO22" t="inlineStr">
+        <is>
           <t>260.00</t>
         </is>
       </c>
-      <c r="BO22" t="inlineStr">
+      <c r="BP22" t="inlineStr">
+        <is>
+          <t>241.45</t>
+        </is>
+      </c>
+      <c r="BQ22" t="inlineStr">
+        <is>
+          <t>241.45</t>
+        </is>
+      </c>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>241.45</t>
+        </is>
+      </c>
+      <c r="BS22" t="inlineStr">
         <is>
           <t>260.00</t>
         </is>
       </c>
-      <c r="BP22" t="inlineStr">
+      <c r="BT22" t="inlineStr">
+        <is>
+          <t>277.81</t>
+        </is>
+      </c>
+      <c r="BU22" t="inlineStr">
+        <is>
+          <t>277.81</t>
+        </is>
+      </c>
+      <c r="BV22" t="inlineStr">
         <is>
           <t>268.90</t>
         </is>
       </c>
-      <c r="BQ22" t="inlineStr">
+      <c r="BW22" t="inlineStr">
+        <is>
+          <t>268.90</t>
+        </is>
+      </c>
+      <c r="BX22" t="inlineStr">
+        <is>
+          <t>277.81</t>
+        </is>
+      </c>
+      <c r="BY22" t="inlineStr">
+        <is>
+          <t>277.81</t>
+        </is>
+      </c>
+      <c r="BZ22" t="inlineStr">
+        <is>
+          <t>277.81</t>
+        </is>
+      </c>
+      <c r="CA22" t="inlineStr">
+        <is>
+          <t>268.90</t>
+        </is>
+      </c>
+      <c r="CB22" t="inlineStr">
+        <is>
+          <t>268.90</t>
+        </is>
+      </c>
+      <c r="CC22" t="inlineStr">
+        <is>
+          <t>277.81</t>
+        </is>
+      </c>
+      <c r="CD22" t="inlineStr">
+        <is>
+          <t>277.81</t>
+        </is>
+      </c>
+      <c r="CE22" t="inlineStr">
+        <is>
+          <t>268.90</t>
+        </is>
+      </c>
+      <c r="CF22" t="inlineStr">
+        <is>
+          <t>260.00</t>
+        </is>
+      </c>
+      <c r="CG22" t="inlineStr">
+        <is>
+          <t>260.00</t>
+        </is>
+      </c>
+      <c r="CH22" t="inlineStr">
+        <is>
+          <t>277.81</t>
+        </is>
+      </c>
+      <c r="CI22" t="inlineStr">
+        <is>
+          <t>277.81</t>
+        </is>
+      </c>
+      <c r="CJ22" t="inlineStr">
+        <is>
+          <t>277.81</t>
+        </is>
+      </c>
+      <c r="CK22" t="inlineStr">
+        <is>
+          <t>268.90</t>
+        </is>
+      </c>
+      <c r="CL22" t="inlineStr">
+        <is>
+          <t>268.90</t>
+        </is>
+      </c>
+      <c r="CM22" t="inlineStr">
         <is>
           <t>241.45</t>
         </is>
       </c>
-      <c r="BR22" t="inlineStr">
+      <c r="CN22" t="inlineStr">
         <is>
           <t>241.45</t>
         </is>
       </c>
-      <c r="BS22" t="inlineStr">
+      <c r="CO22" t="inlineStr">
         <is>
           <t>241.45</t>
         </is>
       </c>
-      <c r="BT22" t="inlineStr">
-        <is>
-          <t>277.81</t>
-        </is>
-      </c>
-      <c r="BU22" t="inlineStr">
-        <is>
-          <t>277.81</t>
-        </is>
-      </c>
-      <c r="BV22" t="inlineStr">
-        <is>
-          <t>268.90</t>
-        </is>
-      </c>
-      <c r="BW22" t="inlineStr">
-        <is>
-          <t>268.90</t>
-        </is>
-      </c>
-      <c r="BX22" t="inlineStr">
-        <is>
-          <t>268.90</t>
-        </is>
-      </c>
-      <c r="BY22" t="inlineStr">
-        <is>
-          <t>268.90</t>
-        </is>
-      </c>
-      <c r="BZ22" t="inlineStr">
-        <is>
-          <t>268.90</t>
-        </is>
-      </c>
-      <c r="CA22" t="inlineStr">
-        <is>
-          <t>277.81</t>
-        </is>
-      </c>
-      <c r="CB22" t="inlineStr">
-        <is>
-          <t>277.81</t>
-        </is>
-      </c>
-      <c r="CC22" t="inlineStr">
-        <is>
-          <t>277.81</t>
-        </is>
-      </c>
-      <c r="CD22" t="inlineStr">
-        <is>
-          <t>277.81</t>
-        </is>
-      </c>
-      <c r="CE22" t="inlineStr">
-        <is>
-          <t>277.81</t>
-        </is>
-      </c>
-      <c r="CF22" t="inlineStr">
-        <is>
-          <t>260.00</t>
-        </is>
-      </c>
-      <c r="CG22" t="inlineStr">
-        <is>
-          <t>260.00</t>
-        </is>
-      </c>
-      <c r="CH22" t="inlineStr">
-        <is>
-          <t>277.81</t>
-        </is>
-      </c>
-      <c r="CI22" t="inlineStr">
-        <is>
-          <t>277.81</t>
-        </is>
-      </c>
-      <c r="CJ22" t="inlineStr">
-        <is>
-          <t>277.81</t>
-        </is>
-      </c>
-      <c r="CK22" t="inlineStr">
-        <is>
-          <t>268.90</t>
-        </is>
-      </c>
-      <c r="CL22" t="inlineStr">
-        <is>
-          <t>268.90</t>
-        </is>
-      </c>
-      <c r="CM22" t="inlineStr">
-        <is>
-          <t>241.45</t>
-        </is>
-      </c>
-      <c r="CN22" t="inlineStr">
-        <is>
-          <t>241.45</t>
-        </is>
-      </c>
-      <c r="CO22" t="inlineStr">
-        <is>
-          <t>241.45</t>
-        </is>
-      </c>
+      <c r="CP22" t="inlineStr"/>
+      <c r="CQ22" t="inlineStr"/>
+      <c r="CR22" t="inlineStr"/>
+      <c r="CS22" t="inlineStr"/>
+      <c r="CT22" t="inlineStr"/>
+      <c r="CU22" t="inlineStr"/>
+      <c r="CV22" t="inlineStr"/>
+      <c r="CW22" t="inlineStr"/>
+      <c r="CX22" t="inlineStr"/>
+      <c r="CY22" t="inlineStr"/>
+      <c r="CZ22" t="inlineStr"/>
+      <c r="DA22" t="inlineStr"/>
+      <c r="DB22" t="inlineStr"/>
+      <c r="DC22" t="inlineStr"/>
+      <c r="DD22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -10253,89 +10583,89 @@
       </c>
       <c r="AL23" t="inlineStr">
         <is>
+          <t>191.09</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
           <t>210.10</t>
         </is>
       </c>
-      <c r="AM23" t="inlineStr">
+      <c r="AN23" t="inlineStr">
         <is>
           <t>210.10</t>
         </is>
       </c>
-      <c r="AN23" t="inlineStr">
+      <c r="AO23" t="inlineStr">
         <is>
           <t>210.10</t>
         </is>
       </c>
-      <c r="AO23" t="inlineStr">
+      <c r="AP23" t="inlineStr">
         <is>
           <t>210.10</t>
         </is>
       </c>
-      <c r="AP23" t="inlineStr">
+      <c r="AQ23" t="inlineStr">
         <is>
           <t>221.90</t>
         </is>
       </c>
-      <c r="AQ23" t="inlineStr">
+      <c r="AR23" t="inlineStr">
         <is>
           <t>221.90</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AS23" t="inlineStr">
         <is>
           <t>210.10</t>
         </is>
       </c>
-      <c r="AS23" t="inlineStr">
+      <c r="AT23" t="inlineStr">
         <is>
           <t>210.10</t>
         </is>
       </c>
-      <c r="AT23" t="inlineStr">
+      <c r="AU23" t="inlineStr">
         <is>
           <t>221.90</t>
         </is>
       </c>
-      <c r="AU23" t="inlineStr">
+      <c r="AV23" t="inlineStr">
         <is>
           <t>221.90</t>
         </is>
       </c>
-      <c r="AV23" t="inlineStr">
+      <c r="AW23" t="inlineStr">
         <is>
           <t>262.97</t>
         </is>
       </c>
-      <c r="AW23" t="inlineStr">
+      <c r="AX23" t="inlineStr">
         <is>
           <t>221.90</t>
         </is>
       </c>
-      <c r="AX23" t="inlineStr">
+      <c r="AY23" t="inlineStr">
         <is>
           <t>221.90</t>
         </is>
       </c>
-      <c r="AY23" t="inlineStr">
+      <c r="AZ23" t="inlineStr">
         <is>
           <t>210.10</t>
         </is>
       </c>
-      <c r="AZ23" t="inlineStr">
+      <c r="BA23" t="inlineStr">
+        <is>
+          <t>191.09</t>
+        </is>
+      </c>
+      <c r="BB23" t="inlineStr">
         <is>
           <t>210.10</t>
         </is>
       </c>
-      <c r="BA23" t="inlineStr">
-        <is>
-          <t>191.09</t>
-        </is>
-      </c>
-      <c r="BB23" t="inlineStr">
-        <is>
-          <t>191.09</t>
-        </is>
-      </c>
       <c r="BC23" t="inlineStr">
         <is>
           <t>245.53</t>
@@ -10393,144 +10723,159 @@
       </c>
       <c r="BN23" t="inlineStr">
         <is>
+          <t>294.85</t>
+        </is>
+      </c>
+      <c r="BO23" t="inlineStr">
+        <is>
           <t>284.19</t>
         </is>
       </c>
-      <c r="BO23" t="inlineStr">
+      <c r="BP23" t="inlineStr">
+        <is>
+          <t>262.97</t>
+        </is>
+      </c>
+      <c r="BQ23" t="inlineStr">
+        <is>
+          <t>262.97</t>
+        </is>
+      </c>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>262.97</t>
+        </is>
+      </c>
+      <c r="BS23" t="inlineStr">
         <is>
           <t>284.19</t>
         </is>
       </c>
-      <c r="BP23" t="inlineStr">
+      <c r="BT23" t="inlineStr">
+        <is>
+          <t>305.52</t>
+        </is>
+      </c>
+      <c r="BU23" t="inlineStr">
+        <is>
+          <t>305.52</t>
+        </is>
+      </c>
+      <c r="BV23" t="inlineStr">
         <is>
           <t>294.85</t>
         </is>
       </c>
-      <c r="BQ23" t="inlineStr">
+      <c r="BW23" t="inlineStr">
+        <is>
+          <t>294.85</t>
+        </is>
+      </c>
+      <c r="BX23" t="inlineStr">
+        <is>
+          <t>305.52</t>
+        </is>
+      </c>
+      <c r="BY23" t="inlineStr">
+        <is>
+          <t>305.52</t>
+        </is>
+      </c>
+      <c r="BZ23" t="inlineStr">
+        <is>
+          <t>305.52</t>
+        </is>
+      </c>
+      <c r="CA23" t="inlineStr">
+        <is>
+          <t>294.85</t>
+        </is>
+      </c>
+      <c r="CB23" t="inlineStr">
+        <is>
+          <t>294.85</t>
+        </is>
+      </c>
+      <c r="CC23" t="inlineStr">
+        <is>
+          <t>305.52</t>
+        </is>
+      </c>
+      <c r="CD23" t="inlineStr">
+        <is>
+          <t>305.52</t>
+        </is>
+      </c>
+      <c r="CE23" t="inlineStr">
+        <is>
+          <t>294.85</t>
+        </is>
+      </c>
+      <c r="CF23" t="inlineStr">
+        <is>
+          <t>284.19</t>
+        </is>
+      </c>
+      <c r="CG23" t="inlineStr">
+        <is>
+          <t>284.19</t>
+        </is>
+      </c>
+      <c r="CH23" t="inlineStr">
+        <is>
+          <t>305.52</t>
+        </is>
+      </c>
+      <c r="CI23" t="inlineStr">
+        <is>
+          <t>305.52</t>
+        </is>
+      </c>
+      <c r="CJ23" t="inlineStr">
+        <is>
+          <t>305.52</t>
+        </is>
+      </c>
+      <c r="CK23" t="inlineStr">
+        <is>
+          <t>294.85</t>
+        </is>
+      </c>
+      <c r="CL23" t="inlineStr">
+        <is>
+          <t>294.85</t>
+        </is>
+      </c>
+      <c r="CM23" t="inlineStr">
         <is>
           <t>262.97</t>
         </is>
       </c>
-      <c r="BR23" t="inlineStr">
+      <c r="CN23" t="inlineStr">
         <is>
           <t>262.97</t>
         </is>
       </c>
-      <c r="BS23" t="inlineStr">
+      <c r="CO23" t="inlineStr">
         <is>
           <t>262.97</t>
         </is>
       </c>
-      <c r="BT23" t="inlineStr">
-        <is>
-          <t>305.52</t>
-        </is>
-      </c>
-      <c r="BU23" t="inlineStr">
-        <is>
-          <t>305.52</t>
-        </is>
-      </c>
-      <c r="BV23" t="inlineStr">
-        <is>
-          <t>294.85</t>
-        </is>
-      </c>
-      <c r="BW23" t="inlineStr">
-        <is>
-          <t>294.85</t>
-        </is>
-      </c>
-      <c r="BX23" t="inlineStr">
-        <is>
-          <t>294.85</t>
-        </is>
-      </c>
-      <c r="BY23" t="inlineStr">
-        <is>
-          <t>294.85</t>
-        </is>
-      </c>
-      <c r="BZ23" t="inlineStr">
-        <is>
-          <t>294.85</t>
-        </is>
-      </c>
-      <c r="CA23" t="inlineStr">
-        <is>
-          <t>305.52</t>
-        </is>
-      </c>
-      <c r="CB23" t="inlineStr">
-        <is>
-          <t>305.52</t>
-        </is>
-      </c>
-      <c r="CC23" t="inlineStr">
-        <is>
-          <t>305.52</t>
-        </is>
-      </c>
-      <c r="CD23" t="inlineStr">
-        <is>
-          <t>305.52</t>
-        </is>
-      </c>
-      <c r="CE23" t="inlineStr">
-        <is>
-          <t>305.52</t>
-        </is>
-      </c>
-      <c r="CF23" t="inlineStr">
-        <is>
-          <t>284.19</t>
-        </is>
-      </c>
-      <c r="CG23" t="inlineStr">
-        <is>
-          <t>284.19</t>
-        </is>
-      </c>
-      <c r="CH23" t="inlineStr">
-        <is>
-          <t>305.52</t>
-        </is>
-      </c>
-      <c r="CI23" t="inlineStr">
-        <is>
-          <t>305.52</t>
-        </is>
-      </c>
-      <c r="CJ23" t="inlineStr">
-        <is>
-          <t>305.52</t>
-        </is>
-      </c>
-      <c r="CK23" t="inlineStr">
-        <is>
-          <t>294.85</t>
-        </is>
-      </c>
-      <c r="CL23" t="inlineStr">
-        <is>
-          <t>294.85</t>
-        </is>
-      </c>
-      <c r="CM23" t="inlineStr">
-        <is>
-          <t>262.97</t>
-        </is>
-      </c>
-      <c r="CN23" t="inlineStr">
-        <is>
-          <t>262.97</t>
-        </is>
-      </c>
-      <c r="CO23" t="inlineStr">
-        <is>
-          <t>262.97</t>
-        </is>
-      </c>
+      <c r="CP23" t="inlineStr"/>
+      <c r="CQ23" t="inlineStr"/>
+      <c r="CR23" t="inlineStr"/>
+      <c r="CS23" t="inlineStr"/>
+      <c r="CT23" t="inlineStr"/>
+      <c r="CU23" t="inlineStr"/>
+      <c r="CV23" t="inlineStr"/>
+      <c r="CW23" t="inlineStr"/>
+      <c r="CX23" t="inlineStr"/>
+      <c r="CY23" t="inlineStr"/>
+      <c r="CZ23" t="inlineStr"/>
+      <c r="DA23" t="inlineStr"/>
+      <c r="DB23" t="inlineStr"/>
+      <c r="DC23" t="inlineStr"/>
+      <c r="DD23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -10716,89 +11061,89 @@
       </c>
       <c r="AL24" t="inlineStr">
         <is>
+          <t>227.16</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
           <t>248.97</t>
         </is>
       </c>
-      <c r="AM24" t="inlineStr">
+      <c r="AN24" t="inlineStr">
         <is>
           <t>248.97</t>
         </is>
       </c>
-      <c r="AN24" t="inlineStr">
+      <c r="AO24" t="inlineStr">
         <is>
           <t>248.97</t>
         </is>
       </c>
-      <c r="AO24" t="inlineStr">
+      <c r="AP24" t="inlineStr">
         <is>
           <t>248.97</t>
         </is>
       </c>
-      <c r="AP24" t="inlineStr">
+      <c r="AQ24" t="inlineStr">
         <is>
           <t>261.77</t>
         </is>
       </c>
-      <c r="AQ24" t="inlineStr">
+      <c r="AR24" t="inlineStr">
         <is>
           <t>261.77</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
+      <c r="AS24" t="inlineStr">
         <is>
           <t>248.97</t>
         </is>
       </c>
-      <c r="AS24" t="inlineStr">
+      <c r="AT24" t="inlineStr">
         <is>
           <t>248.97</t>
         </is>
       </c>
-      <c r="AT24" t="inlineStr">
+      <c r="AU24" t="inlineStr">
         <is>
           <t>261.77</t>
         </is>
       </c>
-      <c r="AU24" t="inlineStr">
+      <c r="AV24" t="inlineStr">
         <is>
           <t>261.77</t>
         </is>
       </c>
-      <c r="AV24" t="inlineStr">
+      <c r="AW24" t="inlineStr">
         <is>
           <t>307.93</t>
         </is>
       </c>
-      <c r="AW24" t="inlineStr">
+      <c r="AX24" t="inlineStr">
         <is>
           <t>261.77</t>
         </is>
       </c>
-      <c r="AX24" t="inlineStr">
+      <c r="AY24" t="inlineStr">
         <is>
           <t>261.77</t>
         </is>
       </c>
-      <c r="AY24" t="inlineStr">
+      <c r="AZ24" t="inlineStr">
         <is>
           <t>248.97</t>
         </is>
       </c>
-      <c r="AZ24" t="inlineStr">
+      <c r="BA24" t="inlineStr">
+        <is>
+          <t>227.16</t>
+        </is>
+      </c>
+      <c r="BB24" t="inlineStr">
         <is>
           <t>248.97</t>
         </is>
       </c>
-      <c r="BA24" t="inlineStr">
-        <is>
-          <t>227.16</t>
-        </is>
-      </c>
-      <c r="BB24" t="inlineStr">
-        <is>
-          <t>227.16</t>
-        </is>
-      </c>
       <c r="BC24" t="inlineStr">
         <is>
           <t>288.31</t>
@@ -10856,144 +11201,159 @@
       </c>
       <c r="BN24" t="inlineStr">
         <is>
+          <t>344.24</t>
+        </is>
+      </c>
+      <c r="BO24" t="inlineStr">
+        <is>
           <t>332.24</t>
         </is>
       </c>
-      <c r="BO24" t="inlineStr">
+      <c r="BP24" t="inlineStr">
+        <is>
+          <t>307.93</t>
+        </is>
+      </c>
+      <c r="BQ24" t="inlineStr">
+        <is>
+          <t>307.93</t>
+        </is>
+      </c>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>307.93</t>
+        </is>
+      </c>
+      <c r="BS24" t="inlineStr">
         <is>
           <t>332.24</t>
         </is>
       </c>
-      <c r="BP24" t="inlineStr">
+      <c r="BT24" t="inlineStr">
+        <is>
+          <t>356.23</t>
+        </is>
+      </c>
+      <c r="BU24" t="inlineStr">
+        <is>
+          <t>356.23</t>
+        </is>
+      </c>
+      <c r="BV24" t="inlineStr">
         <is>
           <t>344.24</t>
         </is>
       </c>
-      <c r="BQ24" t="inlineStr">
+      <c r="BW24" t="inlineStr">
+        <is>
+          <t>344.24</t>
+        </is>
+      </c>
+      <c r="BX24" t="inlineStr">
+        <is>
+          <t>356.23</t>
+        </is>
+      </c>
+      <c r="BY24" t="inlineStr">
+        <is>
+          <t>356.23</t>
+        </is>
+      </c>
+      <c r="BZ24" t="inlineStr">
+        <is>
+          <t>356.23</t>
+        </is>
+      </c>
+      <c r="CA24" t="inlineStr">
+        <is>
+          <t>344.24</t>
+        </is>
+      </c>
+      <c r="CB24" t="inlineStr">
+        <is>
+          <t>344.24</t>
+        </is>
+      </c>
+      <c r="CC24" t="inlineStr">
+        <is>
+          <t>356.23</t>
+        </is>
+      </c>
+      <c r="CD24" t="inlineStr">
+        <is>
+          <t>356.23</t>
+        </is>
+      </c>
+      <c r="CE24" t="inlineStr">
+        <is>
+          <t>344.24</t>
+        </is>
+      </c>
+      <c r="CF24" t="inlineStr">
+        <is>
+          <t>332.24</t>
+        </is>
+      </c>
+      <c r="CG24" t="inlineStr">
+        <is>
+          <t>332.24</t>
+        </is>
+      </c>
+      <c r="CH24" t="inlineStr">
+        <is>
+          <t>356.23</t>
+        </is>
+      </c>
+      <c r="CI24" t="inlineStr">
+        <is>
+          <t>356.23</t>
+        </is>
+      </c>
+      <c r="CJ24" t="inlineStr">
+        <is>
+          <t>356.23</t>
+        </is>
+      </c>
+      <c r="CK24" t="inlineStr">
+        <is>
+          <t>344.24</t>
+        </is>
+      </c>
+      <c r="CL24" t="inlineStr">
+        <is>
+          <t>344.24</t>
+        </is>
+      </c>
+      <c r="CM24" t="inlineStr">
         <is>
           <t>307.93</t>
         </is>
       </c>
-      <c r="BR24" t="inlineStr">
+      <c r="CN24" t="inlineStr">
         <is>
           <t>307.93</t>
         </is>
       </c>
-      <c r="BS24" t="inlineStr">
+      <c r="CO24" t="inlineStr">
         <is>
           <t>307.93</t>
         </is>
       </c>
-      <c r="BT24" t="inlineStr">
-        <is>
-          <t>356.23</t>
-        </is>
-      </c>
-      <c r="BU24" t="inlineStr">
-        <is>
-          <t>356.23</t>
-        </is>
-      </c>
-      <c r="BV24" t="inlineStr">
-        <is>
-          <t>344.24</t>
-        </is>
-      </c>
-      <c r="BW24" t="inlineStr">
-        <is>
-          <t>344.24</t>
-        </is>
-      </c>
-      <c r="BX24" t="inlineStr">
-        <is>
-          <t>344.24</t>
-        </is>
-      </c>
-      <c r="BY24" t="inlineStr">
-        <is>
-          <t>344.24</t>
-        </is>
-      </c>
-      <c r="BZ24" t="inlineStr">
-        <is>
-          <t>344.24</t>
-        </is>
-      </c>
-      <c r="CA24" t="inlineStr">
-        <is>
-          <t>356.23</t>
-        </is>
-      </c>
-      <c r="CB24" t="inlineStr">
-        <is>
-          <t>356.23</t>
-        </is>
-      </c>
-      <c r="CC24" t="inlineStr">
-        <is>
-          <t>356.23</t>
-        </is>
-      </c>
-      <c r="CD24" t="inlineStr">
-        <is>
-          <t>356.23</t>
-        </is>
-      </c>
-      <c r="CE24" t="inlineStr">
-        <is>
-          <t>356.23</t>
-        </is>
-      </c>
-      <c r="CF24" t="inlineStr">
-        <is>
-          <t>332.24</t>
-        </is>
-      </c>
-      <c r="CG24" t="inlineStr">
-        <is>
-          <t>332.24</t>
-        </is>
-      </c>
-      <c r="CH24" t="inlineStr">
-        <is>
-          <t>356.23</t>
-        </is>
-      </c>
-      <c r="CI24" t="inlineStr">
-        <is>
-          <t>356.23</t>
-        </is>
-      </c>
-      <c r="CJ24" t="inlineStr">
-        <is>
-          <t>356.23</t>
-        </is>
-      </c>
-      <c r="CK24" t="inlineStr">
-        <is>
-          <t>344.24</t>
-        </is>
-      </c>
-      <c r="CL24" t="inlineStr">
-        <is>
-          <t>344.24</t>
-        </is>
-      </c>
-      <c r="CM24" t="inlineStr">
-        <is>
-          <t>307.93</t>
-        </is>
-      </c>
-      <c r="CN24" t="inlineStr">
-        <is>
-          <t>307.93</t>
-        </is>
-      </c>
-      <c r="CO24" t="inlineStr">
-        <is>
-          <t>307.93</t>
-        </is>
-      </c>
+      <c r="CP24" t="inlineStr"/>
+      <c r="CQ24" t="inlineStr"/>
+      <c r="CR24" t="inlineStr"/>
+      <c r="CS24" t="inlineStr"/>
+      <c r="CT24" t="inlineStr"/>
+      <c r="CU24" t="inlineStr"/>
+      <c r="CV24" t="inlineStr"/>
+      <c r="CW24" t="inlineStr"/>
+      <c r="CX24" t="inlineStr"/>
+      <c r="CY24" t="inlineStr"/>
+      <c r="CZ24" t="inlineStr"/>
+      <c r="DA24" t="inlineStr"/>
+      <c r="DB24" t="inlineStr"/>
+      <c r="DC24" t="inlineStr"/>
+      <c r="DD24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -11179,89 +11539,89 @@
       </c>
       <c r="AL25" t="inlineStr">
         <is>
+          <t>254.32</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
           <t>278.11</t>
         </is>
       </c>
-      <c r="AM25" t="inlineStr">
+      <c r="AN25" t="inlineStr">
         <is>
           <t>278.11</t>
         </is>
       </c>
-      <c r="AN25" t="inlineStr">
+      <c r="AO25" t="inlineStr">
         <is>
           <t>278.11</t>
         </is>
       </c>
-      <c r="AO25" t="inlineStr">
+      <c r="AP25" t="inlineStr">
         <is>
           <t>278.11</t>
         </is>
       </c>
-      <c r="AP25" t="inlineStr">
+      <c r="AQ25" t="inlineStr">
         <is>
           <t>291.44</t>
         </is>
       </c>
-      <c r="AQ25" t="inlineStr">
+      <c r="AR25" t="inlineStr">
         <is>
           <t>291.44</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
+      <c r="AS25" t="inlineStr">
         <is>
           <t>278.11</t>
         </is>
       </c>
-      <c r="AS25" t="inlineStr">
+      <c r="AT25" t="inlineStr">
         <is>
           <t>278.11</t>
         </is>
       </c>
-      <c r="AT25" t="inlineStr">
+      <c r="AU25" t="inlineStr">
         <is>
           <t>291.44</t>
         </is>
       </c>
-      <c r="AU25" t="inlineStr">
+      <c r="AV25" t="inlineStr">
         <is>
           <t>291.44</t>
         </is>
       </c>
-      <c r="AV25" t="inlineStr">
+      <c r="AW25" t="inlineStr">
         <is>
           <t>340.96</t>
         </is>
       </c>
-      <c r="AW25" t="inlineStr">
+      <c r="AX25" t="inlineStr">
         <is>
           <t>291.44</t>
         </is>
       </c>
-      <c r="AX25" t="inlineStr">
+      <c r="AY25" t="inlineStr">
         <is>
           <t>291.44</t>
         </is>
       </c>
-      <c r="AY25" t="inlineStr">
+      <c r="AZ25" t="inlineStr">
         <is>
           <t>278.11</t>
         </is>
       </c>
-      <c r="AZ25" t="inlineStr">
+      <c r="BA25" t="inlineStr">
+        <is>
+          <t>254.32</t>
+        </is>
+      </c>
+      <c r="BB25" t="inlineStr">
         <is>
           <t>278.11</t>
         </is>
       </c>
-      <c r="BA25" t="inlineStr">
-        <is>
-          <t>254.32</t>
-        </is>
-      </c>
-      <c r="BB25" t="inlineStr">
-        <is>
-          <t>254.32</t>
-        </is>
-      </c>
       <c r="BC25" t="inlineStr">
         <is>
           <t>319.89</t>
@@ -11319,144 +11679,159 @@
       </c>
       <c r="BN25" t="inlineStr">
         <is>
+          <t>380.31</t>
+        </is>
+      </c>
+      <c r="BO25" t="inlineStr">
+        <is>
           <t>367.44</t>
         </is>
       </c>
-      <c r="BO25" t="inlineStr">
+      <c r="BP25" t="inlineStr">
+        <is>
+          <t>340.96</t>
+        </is>
+      </c>
+      <c r="BQ25" t="inlineStr">
+        <is>
+          <t>340.96</t>
+        </is>
+      </c>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>340.96</t>
+        </is>
+      </c>
+      <c r="BS25" t="inlineStr">
         <is>
           <t>367.44</t>
         </is>
       </c>
-      <c r="BP25" t="inlineStr">
+      <c r="BT25" t="inlineStr">
+        <is>
+          <t>393.18</t>
+        </is>
+      </c>
+      <c r="BU25" t="inlineStr">
+        <is>
+          <t>393.18</t>
+        </is>
+      </c>
+      <c r="BV25" t="inlineStr">
         <is>
           <t>380.31</t>
         </is>
       </c>
-      <c r="BQ25" t="inlineStr">
+      <c r="BW25" t="inlineStr">
+        <is>
+          <t>380.31</t>
+        </is>
+      </c>
+      <c r="BX25" t="inlineStr">
+        <is>
+          <t>393.18</t>
+        </is>
+      </c>
+      <c r="BY25" t="inlineStr">
+        <is>
+          <t>393.18</t>
+        </is>
+      </c>
+      <c r="BZ25" t="inlineStr">
+        <is>
+          <t>393.18</t>
+        </is>
+      </c>
+      <c r="CA25" t="inlineStr">
+        <is>
+          <t>380.31</t>
+        </is>
+      </c>
+      <c r="CB25" t="inlineStr">
+        <is>
+          <t>380.31</t>
+        </is>
+      </c>
+      <c r="CC25" t="inlineStr">
+        <is>
+          <t>393.18</t>
+        </is>
+      </c>
+      <c r="CD25" t="inlineStr">
+        <is>
+          <t>393.18</t>
+        </is>
+      </c>
+      <c r="CE25" t="inlineStr">
+        <is>
+          <t>380.31</t>
+        </is>
+      </c>
+      <c r="CF25" t="inlineStr">
+        <is>
+          <t>367.44</t>
+        </is>
+      </c>
+      <c r="CG25" t="inlineStr">
+        <is>
+          <t>367.44</t>
+        </is>
+      </c>
+      <c r="CH25" t="inlineStr">
+        <is>
+          <t>393.18</t>
+        </is>
+      </c>
+      <c r="CI25" t="inlineStr">
+        <is>
+          <t>393.18</t>
+        </is>
+      </c>
+      <c r="CJ25" t="inlineStr">
+        <is>
+          <t>393.18</t>
+        </is>
+      </c>
+      <c r="CK25" t="inlineStr">
+        <is>
+          <t>380.31</t>
+        </is>
+      </c>
+      <c r="CL25" t="inlineStr">
+        <is>
+          <t>380.31</t>
+        </is>
+      </c>
+      <c r="CM25" t="inlineStr">
         <is>
           <t>340.96</t>
         </is>
       </c>
-      <c r="BR25" t="inlineStr">
+      <c r="CN25" t="inlineStr">
         <is>
           <t>340.96</t>
         </is>
       </c>
-      <c r="BS25" t="inlineStr">
+      <c r="CO25" t="inlineStr">
         <is>
           <t>340.96</t>
         </is>
       </c>
-      <c r="BT25" t="inlineStr">
-        <is>
-          <t>393.18</t>
-        </is>
-      </c>
-      <c r="BU25" t="inlineStr">
-        <is>
-          <t>393.18</t>
-        </is>
-      </c>
-      <c r="BV25" t="inlineStr">
-        <is>
-          <t>380.31</t>
-        </is>
-      </c>
-      <c r="BW25" t="inlineStr">
-        <is>
-          <t>380.31</t>
-        </is>
-      </c>
-      <c r="BX25" t="inlineStr">
-        <is>
-          <t>380.31</t>
-        </is>
-      </c>
-      <c r="BY25" t="inlineStr">
-        <is>
-          <t>380.31</t>
-        </is>
-      </c>
-      <c r="BZ25" t="inlineStr">
-        <is>
-          <t>380.31</t>
-        </is>
-      </c>
-      <c r="CA25" t="inlineStr">
-        <is>
-          <t>393.18</t>
-        </is>
-      </c>
-      <c r="CB25" t="inlineStr">
-        <is>
-          <t>393.18</t>
-        </is>
-      </c>
-      <c r="CC25" t="inlineStr">
-        <is>
-          <t>393.18</t>
-        </is>
-      </c>
-      <c r="CD25" t="inlineStr">
-        <is>
-          <t>393.18</t>
-        </is>
-      </c>
-      <c r="CE25" t="inlineStr">
-        <is>
-          <t>393.18</t>
-        </is>
-      </c>
-      <c r="CF25" t="inlineStr">
-        <is>
-          <t>367.44</t>
-        </is>
-      </c>
-      <c r="CG25" t="inlineStr">
-        <is>
-          <t>367.44</t>
-        </is>
-      </c>
-      <c r="CH25" t="inlineStr">
-        <is>
-          <t>393.18</t>
-        </is>
-      </c>
-      <c r="CI25" t="inlineStr">
-        <is>
-          <t>393.18</t>
-        </is>
-      </c>
-      <c r="CJ25" t="inlineStr">
-        <is>
-          <t>393.18</t>
-        </is>
-      </c>
-      <c r="CK25" t="inlineStr">
-        <is>
-          <t>380.31</t>
-        </is>
-      </c>
-      <c r="CL25" t="inlineStr">
-        <is>
-          <t>380.31</t>
-        </is>
-      </c>
-      <c r="CM25" t="inlineStr">
-        <is>
-          <t>340.96</t>
-        </is>
-      </c>
-      <c r="CN25" t="inlineStr">
-        <is>
-          <t>340.96</t>
-        </is>
-      </c>
-      <c r="CO25" t="inlineStr">
-        <is>
-          <t>340.96</t>
-        </is>
-      </c>
+      <c r="CP25" t="inlineStr"/>
+      <c r="CQ25" t="inlineStr"/>
+      <c r="CR25" t="inlineStr"/>
+      <c r="CS25" t="inlineStr"/>
+      <c r="CT25" t="inlineStr"/>
+      <c r="CU25" t="inlineStr"/>
+      <c r="CV25" t="inlineStr"/>
+      <c r="CW25" t="inlineStr"/>
+      <c r="CX25" t="inlineStr"/>
+      <c r="CY25" t="inlineStr"/>
+      <c r="CZ25" t="inlineStr"/>
+      <c r="DA25" t="inlineStr"/>
+      <c r="DB25" t="inlineStr"/>
+      <c r="DC25" t="inlineStr"/>
+      <c r="DD25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
